--- a/14h_input_jpg/14h_simulation_results.xlsx
+++ b/14h_input_jpg/14h_simulation_results.xlsx
@@ -482,25 +482,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4.315756153002192</v>
+        <v>6.398231693527084</v>
       </c>
       <c r="C2" t="n">
-        <v>0.04800337416008091</v>
+        <v>0.1784079929932847</v>
       </c>
       <c r="D2" t="n">
-        <v>1.944362781034022</v>
+        <v>1.944944302238387</v>
       </c>
       <c r="E2" t="n">
-        <v>18.92508294329236</v>
+        <v>18.882779784239</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1780581255633543</v>
+        <v>0.1683742068944862</v>
       </c>
       <c r="G2" t="n">
-        <v>6107.458136515911</v>
+        <v>6110.350995761165</v>
       </c>
       <c r="H2" t="n">
-        <v>3.06961318157378</v>
+        <v>0.914298998793335</v>
       </c>
     </row>
     <row r="3">
@@ -510,25 +510,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4.318105113245635</v>
+        <v>7.398214413407449</v>
       </c>
       <c r="C3" t="n">
-        <v>0.04795724580603018</v>
+        <v>0.140520740342315</v>
       </c>
       <c r="D3" t="n">
-        <v>1.951998301272838</v>
+        <v>1.943435717886064</v>
       </c>
       <c r="E3" t="n">
-        <v>18.91676964329082</v>
+        <v>15.32583757444309</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1779295426452456</v>
+        <v>0.1880446208000739</v>
       </c>
       <c r="G3" t="n">
-        <v>6105.755304997621</v>
+        <v>6006.732930252184</v>
       </c>
       <c r="H3" t="n">
-        <v>3.17721692666222</v>
+        <v>1.95830509535504</v>
       </c>
     </row>
     <row r="4">
@@ -538,25 +538,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4.320181993130231</v>
+        <v>7.773845464556254</v>
       </c>
       <c r="C4" t="n">
-        <v>0.04805089932644846</v>
+        <v>0.1938790966509607</v>
       </c>
       <c r="D4" t="n">
-        <v>1.957620407159384</v>
+        <v>1.967126072899224</v>
       </c>
       <c r="E4" t="n">
-        <v>18.92291058060226</v>
+        <v>16.44116899533149</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1779662991372961</v>
+        <v>0.183019481518948</v>
       </c>
       <c r="G4" t="n">
-        <v>6108.068900897558</v>
+        <v>6043.419988921082</v>
       </c>
       <c r="H4" t="n">
-        <v>3.10922277838885</v>
+        <v>1.21889433525141</v>
       </c>
     </row>
     <row r="5">
@@ -566,25 +566,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4.316660134749083</v>
+        <v>6.394733991434204</v>
       </c>
       <c r="C5" t="n">
-        <v>0.04778044401223678</v>
+        <v>0.1173668883189821</v>
       </c>
       <c r="D5" t="n">
-        <v>1.977954532340426</v>
+        <v>2.028289226896946</v>
       </c>
       <c r="E5" t="n">
-        <v>18.9326292387056</v>
+        <v>16.36188254106319</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1781500252739138</v>
+        <v>0.1861217735884623</v>
       </c>
       <c r="G5" t="n">
-        <v>6112.107597518257</v>
+        <v>6046.109200167795</v>
       </c>
       <c r="H5" t="n">
-        <v>3.3068651914916</v>
+        <v>2.59652175875315</v>
       </c>
     </row>
     <row r="6">
@@ -594,25 +594,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.319164229040788</v>
+        <v>7.560995689327208</v>
       </c>
       <c r="C6" t="n">
-        <v>0.04790444328647307</v>
+        <v>0.1444640570817522</v>
       </c>
       <c r="D6" t="n">
-        <v>1.971182811168206</v>
+        <v>2.004760692067565</v>
       </c>
       <c r="E6" t="n">
-        <v>18.92813444703306</v>
+        <v>15.97922340991338</v>
       </c>
       <c r="F6" t="n">
-        <v>0.178080002579795</v>
+        <v>0.1872203413011433</v>
       </c>
       <c r="G6" t="n">
-        <v>6110.442913833147</v>
+        <v>6033.371412152173</v>
       </c>
       <c r="H6" t="n">
-        <v>3.212241496504</v>
+        <v>1.76371296837671</v>
       </c>
     </row>
     <row r="7">
@@ -622,25 +622,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4.316247093276568</v>
+        <v>6.619951300381484</v>
       </c>
       <c r="C7" t="n">
-        <v>0.04797158001110847</v>
+        <v>0.1336131409460921</v>
       </c>
       <c r="D7" t="n">
-        <v>1.941537131288718</v>
+        <v>1.918550554442678</v>
       </c>
       <c r="E7" t="n">
-        <v>18.91423055946424</v>
+        <v>16.07255320697867</v>
       </c>
       <c r="F7" t="n">
-        <v>0.177776039403357</v>
+        <v>0.1787431843631176</v>
       </c>
       <c r="G7" t="n">
-        <v>6104.041623493066</v>
+        <v>6023.24216887845</v>
       </c>
       <c r="H7" t="n">
-        <v>3.14961078239005</v>
+        <v>2.06570538883249</v>
       </c>
     </row>
     <row r="8">
@@ -650,25 +650,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4.316848697137319</v>
+        <v>6.613216400869005</v>
       </c>
       <c r="C8" t="n">
-        <v>0.04793635894110378</v>
+        <v>0.135982239682798</v>
       </c>
       <c r="D8" t="n">
-        <v>1.953324135747621</v>
+        <v>1.957565894155067</v>
       </c>
       <c r="E8" t="n">
-        <v>18.92257579127805</v>
+        <v>16.90684185426442</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1780044160864757</v>
+        <v>0.1826584602249634</v>
       </c>
       <c r="G8" t="n">
-        <v>6107.578083240951</v>
+        <v>6055.018353201716</v>
       </c>
       <c r="H8" t="n">
-        <v>3.15791203098817</v>
+        <v>1.83237609067449</v>
       </c>
     </row>
     <row r="9">
@@ -678,25 +678,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4.320824493390059</v>
+        <v>7.911078674421107</v>
       </c>
       <c r="C9" t="n">
-        <v>0.04809791282105643</v>
+        <v>0.2232157127035385</v>
       </c>
       <c r="D9" t="n">
-        <v>1.956088050726047</v>
+        <v>1.964085820319719</v>
       </c>
       <c r="E9" t="n">
-        <v>18.92282310335425</v>
+        <v>16.65838526449949</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1779456042085938</v>
+        <v>0.1809923019206772</v>
       </c>
       <c r="G9" t="n">
-        <v>6107.947313518915</v>
+        <v>6049.502481986987</v>
       </c>
       <c r="H9" t="n">
-        <v>3.07707426473637</v>
+        <v>0.995534004803177</v>
       </c>
     </row>
     <row r="10">
@@ -706,25 +706,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4.317531314667332</v>
+        <v>6.982943655657512</v>
       </c>
       <c r="C10" t="n">
-        <v>0.04773627889401381</v>
+        <v>0.106061249486922</v>
       </c>
       <c r="D10" t="n">
-        <v>1.98289657083023</v>
+        <v>2.036703499491531</v>
       </c>
       <c r="E10" t="n">
-        <v>18.9317676359766</v>
+        <v>15.17784497480788</v>
       </c>
       <c r="F10" t="n">
-        <v>0.178259080162618</v>
+        <v>0.1952221619769459</v>
       </c>
       <c r="G10" t="n">
-        <v>6112.021490639794</v>
+        <v>6012.94294597206</v>
       </c>
       <c r="H10" t="n">
-        <v>3.3326939263145</v>
+        <v>2.83438191616827</v>
       </c>
     </row>
     <row r="11">
@@ -734,25 +734,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4.320815329968079</v>
+        <v>7.915738474632592</v>
       </c>
       <c r="C11" t="n">
-        <v>0.04795923435322884</v>
+        <v>0.1747689586668859</v>
       </c>
       <c r="D11" t="n">
-        <v>1.974437453499632</v>
+        <v>2.019459297591172</v>
       </c>
       <c r="E11" t="n">
-        <v>18.93131125720901</v>
+        <v>16.58604325928809</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1781682096647347</v>
+        <v>0.189074194233932</v>
       </c>
       <c r="G11" t="n">
-        <v>6111.716314542274</v>
+        <v>6055.634766198874</v>
       </c>
       <c r="H11" t="n">
-        <v>3.15069598475453</v>
+        <v>1.2441688794509</v>
       </c>
     </row>
     <row r="12">
@@ -762,25 +762,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4.316097242237985</v>
+        <v>6.554653725143838</v>
       </c>
       <c r="C12" t="n">
-        <v>0.04779255583476107</v>
+        <v>0.1084886321913132</v>
       </c>
       <c r="D12" t="n">
-        <v>1.963024584753513</v>
+        <v>1.974393214932818</v>
       </c>
       <c r="E12" t="n">
-        <v>18.92187753506395</v>
+        <v>15.16114899556059</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1780627337973758</v>
+        <v>0.1917825482892944</v>
       </c>
       <c r="G12" t="n">
-        <v>6107.974722660308</v>
+        <v>6004.673756506195</v>
       </c>
       <c r="H12" t="n">
-        <v>3.28587593646275</v>
+        <v>2.85591296652596</v>
       </c>
     </row>
     <row r="13">
@@ -790,25 +790,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>4.320593465225651</v>
+        <v>7.779292519536443</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0482458896750544</v>
+        <v>0.2396643054942139</v>
       </c>
       <c r="D13" t="n">
-        <v>1.931390761134599</v>
+        <v>1.894158790118286</v>
       </c>
       <c r="E13" t="n">
-        <v>18.91007065161691</v>
+        <v>16.36373379360252</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1778233157837985</v>
+        <v>0.1824901491177256</v>
       </c>
       <c r="G13" t="n">
-        <v>6102.03119545677</v>
+        <v>6032.740306395518</v>
       </c>
       <c r="H13" t="n">
-        <v>2.97446805924653</v>
+        <v>0.903415542335075</v>
       </c>
     </row>
     <row r="14">
@@ -818,25 +818,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>4.318829933833745</v>
+        <v>7.185340645594189</v>
       </c>
       <c r="C14" t="n">
-        <v>0.04800121647321706</v>
+        <v>0.2448680156804897</v>
       </c>
       <c r="D14" t="n">
-        <v>1.972916533988841</v>
+        <v>2.029631931358995</v>
       </c>
       <c r="E14" t="n">
-        <v>18.93717328772596</v>
+        <v>18.86778237677443</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1782289689947144</v>
+        <v>0.1753991743187803</v>
       </c>
       <c r="G14" t="n">
-        <v>6113.511265441612</v>
+        <v>6123.548581637939</v>
       </c>
       <c r="H14" t="n">
-        <v>3.14182905620538</v>
+        <v>0.664717041935196</v>
       </c>
     </row>
     <row r="15">
@@ -846,25 +846,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>4.319267054872497</v>
+        <v>7.655424268718422</v>
       </c>
       <c r="C15" t="n">
-        <v>0.04828928622467445</v>
+        <v>0.1830622785723874</v>
       </c>
       <c r="D15" t="n">
-        <v>1.914158409133243</v>
+        <v>1.843627324155207</v>
       </c>
       <c r="E15" t="n">
-        <v>18.89774020836078</v>
+        <v>15.33296191810968</v>
       </c>
       <c r="F15" t="n">
-        <v>0.17763642764432</v>
+        <v>0.1851180800206704</v>
       </c>
       <c r="G15" t="n">
-        <v>6096.586954583601</v>
+        <v>5994.898842485914</v>
       </c>
       <c r="H15" t="n">
-        <v>2.96169432097855</v>
+        <v>1.21225374944614</v>
       </c>
     </row>
     <row r="16">
@@ -874,25 +874,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>4.322188404334666</v>
+        <v>8.154173147572978</v>
       </c>
       <c r="C16" t="n">
-        <v>0.04851102462366843</v>
+        <v>0.5117915904808964</v>
       </c>
       <c r="D16" t="n">
-        <v>1.912316620045039</v>
+        <v>1.847244414713862</v>
       </c>
       <c r="E16" t="n">
-        <v>18.90158734016643</v>
+        <v>16.56904601335658</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1776948161845095</v>
+        <v>0.1754029994823326</v>
       </c>
       <c r="G16" t="n">
-        <v>6097.404071539669</v>
+        <v>6031.858585664234</v>
       </c>
       <c r="H16" t="n">
-        <v>2.84264251203202</v>
+        <v>0.406565468359494</v>
       </c>
     </row>
     <row r="17">
@@ -902,25 +902,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>4.314436685223694</v>
+        <v>6.343793116418655</v>
       </c>
       <c r="C17" t="n">
-        <v>0.04818024513381067</v>
+        <v>0.2036252139882815</v>
       </c>
       <c r="D17" t="n">
-        <v>1.916091878222325</v>
+        <v>1.868639592945252</v>
       </c>
       <c r="E17" t="n">
-        <v>18.91189670252778</v>
+        <v>18.58661843962266</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1778570417810715</v>
+        <v>0.1641080041933137</v>
       </c>
       <c r="G17" t="n">
-        <v>6100.328294694144</v>
+        <v>6089.801610292673</v>
       </c>
       <c r="H17" t="n">
-        <v>2.96215418250132</v>
+        <v>0.671628279353519</v>
       </c>
     </row>
     <row r="18">
@@ -930,25 +930,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>4.338702512483387</v>
+        <v>13.13097808924736</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0500581507403931</v>
+        <v>6.260141529665918</v>
       </c>
       <c r="D18" t="n">
-        <v>1.880084680086657</v>
+        <v>1.786978842181454</v>
       </c>
       <c r="E18" t="n">
-        <v>18.89458391199288</v>
+        <v>18.56293609930324</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1779704626852358</v>
+        <v>0.1793572299659607</v>
       </c>
       <c r="G18" t="n">
-        <v>6090.589026357797</v>
+        <v>6084.553943041065</v>
       </c>
       <c r="H18" t="n">
-        <v>2.30024724506682</v>
+        <v>0.15652889922291</v>
       </c>
     </row>
     <row r="19">
@@ -958,25 +958,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>4.306130227562451</v>
+        <v>5.459801992040481</v>
       </c>
       <c r="C19" t="n">
-        <v>0.04824010909938241</v>
+        <v>0.1277447462243765</v>
       </c>
       <c r="D19" t="n">
-        <v>1.872162430295783</v>
+        <v>1.760840483875864</v>
       </c>
       <c r="E19" t="n">
-        <v>18.88818095195391</v>
+        <v>17.49781204665073</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1774361871548746</v>
+        <v>0.1609463562655816</v>
       </c>
       <c r="G19" t="n">
-        <v>6086.560303159636</v>
+        <v>6037.978026934791</v>
       </c>
       <c r="H19" t="n">
-        <v>2.9281328134388</v>
+        <v>1.2841741573853</v>
       </c>
     </row>
     <row r="20">
@@ -986,25 +986,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>4.313052936636088</v>
+        <v>6.177372590841217</v>
       </c>
       <c r="C20" t="n">
-        <v>0.04817474798657477</v>
+        <v>0.171896372230848</v>
       </c>
       <c r="D20" t="n">
-        <v>1.908718215828817</v>
+        <v>1.848080441277033</v>
       </c>
       <c r="E20" t="n">
-        <v>18.90752932135475</v>
+        <v>18.27169357267638</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1776572869365151</v>
+        <v>0.1567402125933181</v>
       </c>
       <c r="G20" t="n">
-        <v>6098.006580857086</v>
+        <v>6075.140049845705</v>
       </c>
       <c r="H20" t="n">
-        <v>2.96716672669519</v>
+        <v>0.859444999334934</v>
       </c>
     </row>
     <row r="21">
@@ -1014,25 +1014,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>4.313057043471765</v>
+        <v>5.818830824235333</v>
       </c>
       <c r="C21" t="n">
-        <v>0.04837049609364984</v>
+        <v>0.9111757889398768</v>
       </c>
       <c r="D21" t="n">
-        <v>1.902527903938846</v>
+        <v>1.85625300494143</v>
       </c>
       <c r="E21" t="n">
-        <v>18.91993847884617</v>
+        <v>21.84966203470238</v>
       </c>
       <c r="F21" t="n">
-        <v>0.1777886887312496</v>
+        <v>0.1445556040548466</v>
       </c>
       <c r="G21" t="n">
-        <v>6100.017157817589</v>
+        <v>6180.526508755731</v>
       </c>
       <c r="H21" t="n">
-        <v>2.78656658033212</v>
+        <v>0.178965363104906</v>
       </c>
     </row>
     <row r="22">
@@ -1042,25 +1042,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>4.322181738179026</v>
+        <v>8.235057361451444</v>
       </c>
       <c r="C22" t="n">
-        <v>0.04960162237045867</v>
+        <v>1.392137009759851</v>
       </c>
       <c r="D22" t="n">
-        <v>1.831889332948385</v>
+        <v>1.675072523004494</v>
       </c>
       <c r="E22" t="n">
-        <v>18.86030802963223</v>
+        <v>16.14980710826869</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1772390420412268</v>
+        <v>0.1634561724468455</v>
       </c>
       <c r="G22" t="n">
-        <v>6071.379543958466</v>
+        <v>5989.900882343695</v>
       </c>
       <c r="H22" t="n">
-        <v>2.44902265636507</v>
+        <v>0.216436768284821</v>
       </c>
     </row>
     <row r="23">
@@ -1070,25 +1070,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>4.305888935121949</v>
+        <v>5.204336706978792</v>
       </c>
       <c r="C23" t="n">
-        <v>0.04816140766484658</v>
+        <v>0.1286443607799845</v>
       </c>
       <c r="D23" t="n">
-        <v>1.881237329246521</v>
+        <v>1.78917624036996</v>
       </c>
       <c r="E23" t="n">
-        <v>18.89802104611086</v>
+        <v>18.69495793770302</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1780573801729211</v>
+        <v>0.1818477575796222</v>
       </c>
       <c r="G23" t="n">
-        <v>6090.849765286988</v>
+        <v>6083.654886904032</v>
       </c>
       <c r="H23" t="n">
-        <v>2.92750558465529</v>
+        <v>1.0059813038275</v>
       </c>
     </row>
     <row r="24">
@@ -1098,25 +1098,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>4.309785257973584</v>
+        <v>6.00174059612808</v>
       </c>
       <c r="C24" t="n">
-        <v>0.04829338820153196</v>
+        <v>0.1369363641343238</v>
       </c>
       <c r="D24" t="n">
-        <v>1.879002310563686</v>
+        <v>1.770271344839873</v>
       </c>
       <c r="E24" t="n">
-        <v>18.88602893227903</v>
+        <v>16.47737121341806</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1777725998885618</v>
+        <v>0.1821537027463458</v>
       </c>
       <c r="G24" t="n">
-        <v>6087.77561992056</v>
+        <v>6016.40032503963</v>
       </c>
       <c r="H24" t="n">
-        <v>2.93726032882512</v>
+        <v>1.36878496480938</v>
       </c>
     </row>
     <row r="25">
@@ -1126,25 +1126,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>4.313753171928592</v>
+        <v>6.664338472430974</v>
       </c>
       <c r="C25" t="n">
-        <v>0.04859835768663095</v>
+        <v>0.2850148527824934</v>
       </c>
       <c r="D25" t="n">
-        <v>1.872158180073299</v>
+        <v>1.760161884544781</v>
       </c>
       <c r="E25" t="n">
-        <v>18.88583339972861</v>
+        <v>17.15023865670312</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1777685398352473</v>
+        <v>0.1753144272490069</v>
       </c>
       <c r="G25" t="n">
-        <v>6086.393745905183</v>
+        <v>6034.889693088945</v>
       </c>
       <c r="H25" t="n">
-        <v>2.79126839370346</v>
+        <v>0.523483303139228</v>
       </c>
     </row>
     <row r="26">
@@ -1154,25 +1154,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>4.320351983220734</v>
+        <v>7.879670971188157</v>
       </c>
       <c r="C26" t="n">
-        <v>0.04890440377067179</v>
+        <v>1.143708489037487</v>
       </c>
       <c r="D26" t="n">
-        <v>1.877537609919935</v>
+        <v>1.775307126220259</v>
       </c>
       <c r="E26" t="n">
-        <v>18.89046073872452</v>
+        <v>17.6835843260223</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1778601003110239</v>
+        <v>0.1751791586068006</v>
       </c>
       <c r="G26" t="n">
-        <v>6088.705061288084</v>
+        <v>6054.529174029316</v>
       </c>
       <c r="H26" t="n">
-        <v>2.67204154945377</v>
+        <v>0.215912983191113</v>
       </c>
     </row>
     <row r="27">
@@ -1182,25 +1182,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>4.314332536010861</v>
+        <v>6.785485857915766</v>
       </c>
       <c r="C27" t="n">
-        <v>0.04855951557042183</v>
+        <v>0.228212874915562</v>
       </c>
       <c r="D27" t="n">
-        <v>1.874808218217305</v>
+        <v>1.761841205161512</v>
       </c>
       <c r="E27" t="n">
-        <v>18.88411387728195</v>
+        <v>16.55373012393103</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1776548758479423</v>
+        <v>0.1766851771614195</v>
       </c>
       <c r="G27" t="n">
-        <v>6086.555495938645</v>
+        <v>6017.376302836708</v>
       </c>
       <c r="H27" t="n">
-        <v>2.8191999069992</v>
+        <v>0.708528105532651</v>
       </c>
     </row>
     <row r="28">
@@ -1210,25 +1210,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>4.314601520133461</v>
+        <v>6.259084060820594</v>
       </c>
       <c r="C28" t="n">
-        <v>0.04810612420352538</v>
+        <v>0.180953441287853</v>
       </c>
       <c r="D28" t="n">
-        <v>1.924356320181406</v>
+        <v>1.890784512263095</v>
       </c>
       <c r="E28" t="n">
-        <v>18.9160594872855</v>
+        <v>18.74456915248804</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1780010741357077</v>
+        <v>0.1704642670085583</v>
       </c>
       <c r="G28" t="n">
-        <v>6102.613846181097</v>
+        <v>6099.048078482269</v>
       </c>
       <c r="H28" t="n">
-        <v>2.99157493752939</v>
+        <v>0.743602968666678</v>
       </c>
     </row>
     <row r="29">
@@ -1238,25 +1238,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>4.311739947324962</v>
+        <v>5.2408276325191</v>
       </c>
       <c r="C29" t="n">
-        <v>0.04795241519743765</v>
+        <v>0.1783341044686591</v>
       </c>
       <c r="D29" t="n">
-        <v>1.935249202979585</v>
+        <v>1.935917145398128</v>
       </c>
       <c r="E29" t="n">
-        <v>18.92984279456396</v>
+        <v>21.26559929726039</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1782881153019779</v>
+        <v>0.1718261365915676</v>
       </c>
       <c r="G29" t="n">
-        <v>6107.73205967132</v>
+        <v>6180.650675049189</v>
       </c>
       <c r="H29" t="n">
-        <v>3.01839814841292</v>
+        <v>0.509575344033296</v>
       </c>
     </row>
     <row r="30">
@@ -1266,25 +1266,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>4.318210609035339</v>
+        <v>6.985796658093353</v>
       </c>
       <c r="C30" t="n">
-        <v>0.04805263009057888</v>
+        <v>0.1879966113082877</v>
       </c>
       <c r="D30" t="n">
-        <v>1.949187883019975</v>
+        <v>1.953902549736094</v>
       </c>
       <c r="E30" t="n">
-        <v>18.92417978263273</v>
+        <v>18.02087324167205</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1782050082067325</v>
+        <v>0.1855904675940347</v>
       </c>
       <c r="G30" t="n">
-        <v>6107.84242833321</v>
+        <v>6090.958175045905</v>
       </c>
       <c r="H30" t="n">
-        <v>3.05441857289701</v>
+        <v>0.859371054765305</v>
       </c>
     </row>
     <row r="31">
@@ -1294,25 +1294,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>4.317823898175816</v>
+        <v>6.522033608224987</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0481360789933713</v>
+        <v>0.8284706301024755</v>
       </c>
       <c r="D31" t="n">
-        <v>1.948582009353018</v>
+        <v>1.974417514993119</v>
       </c>
       <c r="E31" t="n">
-        <v>18.93513507390533</v>
+        <v>21.46047232702949</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1783433755133125</v>
+        <v>0.1684850031921447</v>
       </c>
       <c r="G31" t="n">
-        <v>6110.95225047542</v>
+        <v>6193.98884093079</v>
       </c>
       <c r="H31" t="n">
-        <v>2.93506241140573</v>
+        <v>0.189689822097396</v>
       </c>
     </row>
     <row r="32">
@@ -1322,25 +1322,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>4.318892003091754</v>
+        <v>7.295700331370899</v>
       </c>
       <c r="C32" t="n">
-        <v>0.04817406480644117</v>
+        <v>0.1914104792280127</v>
       </c>
       <c r="D32" t="n">
-        <v>1.933135655602376</v>
+        <v>1.902199677853302</v>
       </c>
       <c r="E32" t="n">
-        <v>18.91299927937575</v>
+        <v>16.9135167607931</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1778818441018999</v>
+        <v>0.1811978785975259</v>
       </c>
       <c r="G32" t="n">
-        <v>6102.993945191172</v>
+        <v>6049.009611901408</v>
       </c>
       <c r="H32" t="n">
-        <v>3.00266096567875</v>
+        <v>0.964171036740011</v>
       </c>
     </row>
     <row r="33">
@@ -1350,25 +1350,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>4.317713674401389</v>
+        <v>7.12913372802082</v>
       </c>
       <c r="C33" t="n">
-        <v>0.04816656061430245</v>
+        <v>0.1515434660190494</v>
       </c>
       <c r="D33" t="n">
-        <v>1.923164251498932</v>
+        <v>1.869552108574814</v>
       </c>
       <c r="E33" t="n">
-        <v>18.90474940242767</v>
+        <v>15.95522984686958</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1776340239898895</v>
+        <v>0.1792521259451544</v>
       </c>
       <c r="G33" t="n">
-        <v>6099.49489085423</v>
+        <v>6014.08925436111</v>
       </c>
       <c r="H33" t="n">
-        <v>3.02026655306382</v>
+        <v>1.40991844431218</v>
       </c>
     </row>
     <row r="34">
@@ -1378,25 +1378,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>4.316012333057084</v>
+        <v>6.520606626523352</v>
       </c>
       <c r="C34" t="n">
-        <v>0.04802214433963579</v>
+        <v>0.1230934105612117</v>
       </c>
       <c r="D34" t="n">
-        <v>1.929529888680181</v>
+        <v>1.890231587565724</v>
       </c>
       <c r="E34" t="n">
-        <v>18.91033641239665</v>
+        <v>16.58837720392822</v>
       </c>
       <c r="F34" t="n">
-        <v>0.177822604333231</v>
+        <v>0.1823662367959244</v>
       </c>
       <c r="G34" t="n">
-        <v>6101.75526546187</v>
+        <v>6036.008320698774</v>
       </c>
       <c r="H34" t="n">
-        <v>3.05571038911963</v>
+        <v>1.65928728153141</v>
       </c>
     </row>
     <row r="35">
@@ -1406,25 +1406,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>4.318887665280586</v>
+        <v>7.181446474319011</v>
       </c>
       <c r="C35" t="n">
-        <v>0.04814708918148991</v>
+        <v>0.2441277260279408</v>
       </c>
       <c r="D35" t="n">
-        <v>1.940783484468757</v>
+        <v>1.930591513982257</v>
       </c>
       <c r="E35" t="n">
-        <v>18.92029269276775</v>
+        <v>17.99933885645286</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1782093337114971</v>
+        <v>0.1858143979296932</v>
       </c>
       <c r="G35" t="n">
-        <v>6105.949995777572</v>
+        <v>6088.138890767957</v>
       </c>
       <c r="H35" t="n">
-        <v>2.99598373147456</v>
+        <v>0.619527033802691</v>
       </c>
     </row>
     <row r="36">
@@ -1434,25 +1434,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>4.315971813101222</v>
+        <v>6.736312415264478</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0480789829439287</v>
+        <v>0.1283044904998866</v>
       </c>
       <c r="D36" t="n">
-        <v>1.924525434929411</v>
+        <v>1.871513478125345</v>
       </c>
       <c r="E36" t="n">
-        <v>18.90461252451099</v>
+        <v>15.71433521978387</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1776976987430905</v>
+        <v>0.1837404584493715</v>
       </c>
       <c r="G36" t="n">
-        <v>6099.60222508871</v>
+        <v>6007.495862576313</v>
       </c>
       <c r="H36" t="n">
-        <v>3.07871638439925</v>
+        <v>1.80136074231528</v>
       </c>
     </row>
     <row r="37">
@@ -1462,25 +1462,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>4.319660206573166</v>
+        <v>7.545031069510308</v>
       </c>
       <c r="C37" t="n">
-        <v>0.04866726044596104</v>
+        <v>0.7490256210775769</v>
       </c>
       <c r="D37" t="n">
-        <v>1.891948999505096</v>
+        <v>1.806881521414906</v>
       </c>
       <c r="E37" t="n">
-        <v>18.89760481359885</v>
+        <v>17.80463074187551</v>
       </c>
       <c r="F37" t="n">
-        <v>0.177649667874426</v>
+        <v>0.1622624084769608</v>
       </c>
       <c r="G37" t="n">
-        <v>6092.991100278732</v>
+        <v>6059.219965615242</v>
       </c>
       <c r="H37" t="n">
-        <v>2.7511522655598</v>
+        <v>0.237777933500475</v>
       </c>
     </row>
     <row r="38">
@@ -1490,25 +1490,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>4.295026187127315</v>
+        <v>4.709523273770644</v>
       </c>
       <c r="C38" t="n">
-        <v>0.04833170599605553</v>
+        <v>0.09850522788347923</v>
       </c>
       <c r="D38" t="n">
-        <v>1.827952299070002</v>
+        <v>1.66656274541762</v>
       </c>
       <c r="E38" t="n">
-        <v>18.86051749364069</v>
+        <v>16.18880359558738</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1770353210394496</v>
+        <v>0.1654055748159993</v>
       </c>
       <c r="G38" t="n">
-        <v>6069.684772004382</v>
+        <v>5981.681362437411</v>
       </c>
       <c r="H38" t="n">
-        <v>2.90008620878973</v>
+        <v>1.81962745111899</v>
       </c>
     </row>
     <row r="39">
@@ -1518,25 +1518,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>4.308478106648895</v>
+        <v>5.496615697310676</v>
       </c>
       <c r="C39" t="n">
-        <v>0.04803604015316226</v>
+        <v>0.1048781621206106</v>
       </c>
       <c r="D39" t="n">
-        <v>1.897135943634725</v>
+        <v>1.809198103103176</v>
       </c>
       <c r="E39" t="n">
-        <v>18.89431530121956</v>
+        <v>16.35604425420578</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1776894913938447</v>
+        <v>0.1817315622681262</v>
       </c>
       <c r="G39" t="n">
-        <v>6092.928869442009</v>
+        <v>6016.292121690038</v>
       </c>
       <c r="H39" t="n">
-        <v>3.074556451589</v>
+        <v>2.10689797057224</v>
       </c>
     </row>
     <row r="40">
@@ -1546,25 +1546,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>4.309399407144536</v>
+        <v>5.275339439626048</v>
       </c>
       <c r="C40" t="n">
-        <v>0.04787981902534021</v>
+        <v>0.09538148229922561</v>
       </c>
       <c r="D40" t="n">
-        <v>1.91425898283725</v>
+        <v>1.845025241065222</v>
       </c>
       <c r="E40" t="n">
-        <v>18.8998829697204</v>
+        <v>15.68986524612903</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1775985242262708</v>
+        <v>0.1791335822158377</v>
       </c>
       <c r="G40" t="n">
-        <v>6096.850885093522</v>
+        <v>5999.664390518378</v>
       </c>
       <c r="H40" t="n">
-        <v>3.1775573479697</v>
+        <v>2.86502607747376</v>
       </c>
     </row>
     <row r="41">
@@ -1574,25 +1574,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>4.307944721370657</v>
+        <v>5.485845167973395</v>
       </c>
       <c r="C41" t="n">
-        <v>0.04832866697655889</v>
+        <v>0.1961279346438125</v>
       </c>
       <c r="D41" t="n">
-        <v>1.877881474436924</v>
+        <v>1.784207775860491</v>
       </c>
       <c r="E41" t="n">
-        <v>18.89868362160986</v>
+        <v>19.14652423114976</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1778042719991458</v>
+        <v>0.1680029354915144</v>
       </c>
       <c r="G41" t="n">
-        <v>6090.233184364054</v>
+        <v>6093.214231006424</v>
       </c>
       <c r="H41" t="n">
-        <v>2.85243649325079</v>
+        <v>0.531248166896004</v>
       </c>
     </row>
     <row r="42">
@@ -1602,25 +1602,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>4.30812854458965</v>
+        <v>5.356337315267036</v>
       </c>
       <c r="C42" t="n">
-        <v>0.04798826257884983</v>
+        <v>0.1024074430658747</v>
       </c>
       <c r="D42" t="n">
-        <v>1.897312891937682</v>
+        <v>1.805676760874696</v>
       </c>
       <c r="E42" t="n">
-        <v>18.89184942804965</v>
+        <v>15.76591516273875</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1775903844882959</v>
+        <v>0.1807382951067005</v>
       </c>
       <c r="G42" t="n">
-        <v>6092.323399037758</v>
+        <v>5997.914892189371</v>
       </c>
       <c r="H42" t="n">
-        <v>3.10708316978068</v>
+        <v>2.55891543233728</v>
       </c>
     </row>
     <row r="43">
@@ -1630,25 +1630,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>4.309360457112512</v>
+        <v>5.303398206817238</v>
       </c>
       <c r="C43" t="n">
-        <v>0.04790053179369354</v>
+        <v>0.09987060666766172</v>
       </c>
       <c r="D43" t="n">
-        <v>1.912486156726203</v>
+        <v>1.840193819811062</v>
       </c>
       <c r="E43" t="n">
-        <v>18.89849763249458</v>
+        <v>15.57512354646346</v>
       </c>
       <c r="F43" t="n">
-        <v>0.177636646456548</v>
+        <v>0.1805245596378035</v>
       </c>
       <c r="G43" t="n">
-        <v>6096.287635994261</v>
+        <v>5996.749812515137</v>
       </c>
       <c r="H43" t="n">
-        <v>3.17675015800695</v>
+        <v>2.90297607784265</v>
       </c>
     </row>
     <row r="44">
@@ -1658,25 +1658,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>4.308142087725127</v>
+        <v>5.388153210533718</v>
       </c>
       <c r="C44" t="n">
-        <v>0.04805464303973454</v>
+        <v>0.1140473041262357</v>
       </c>
       <c r="D44" t="n">
-        <v>1.8971056948936</v>
+        <v>1.819007363376766</v>
       </c>
       <c r="E44" t="n">
-        <v>18.9016372398914</v>
+        <v>18.00473308259861</v>
       </c>
       <c r="F44" t="n">
-        <v>0.1776783733374884</v>
+        <v>0.1660681321747246</v>
       </c>
       <c r="G44" t="n">
-        <v>6094.555971920622</v>
+        <v>6062.714732744518</v>
       </c>
       <c r="H44" t="n">
-        <v>3.01254498619231</v>
+        <v>1.44964078446385</v>
       </c>
     </row>
     <row r="45">
@@ -1686,25 +1686,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>4.313207358589701</v>
+        <v>6.140967598806784</v>
       </c>
       <c r="C45" t="n">
-        <v>0.04803989645155027</v>
+        <v>0.1241676307603409</v>
       </c>
       <c r="D45" t="n">
-        <v>1.920231176177795</v>
+        <v>1.868082137675236</v>
       </c>
       <c r="E45" t="n">
-        <v>18.90730924604589</v>
+        <v>16.91309310906175</v>
       </c>
       <c r="F45" t="n">
-        <v>0.177709236341882</v>
+        <v>0.1753885770964086</v>
       </c>
       <c r="G45" t="n">
-        <v>6099.690815082176</v>
+        <v>6040.361510759858</v>
       </c>
       <c r="H45" t="n">
-        <v>3.0792733415833</v>
+        <v>1.66327932280565</v>
       </c>
     </row>
     <row r="46">
@@ -1714,25 +1714,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>4.312412810208217</v>
+        <v>6.492544006661694</v>
       </c>
       <c r="C46" t="n">
-        <v>0.04826134356959325</v>
+        <v>0.1251944587411598</v>
       </c>
       <c r="D46" t="n">
-        <v>1.881844140724215</v>
+        <v>1.760052333388645</v>
       </c>
       <c r="E46" t="n">
-        <v>18.87545918004922</v>
+        <v>14.02038651904451</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1772364722648556</v>
+        <v>0.182305654976266</v>
       </c>
       <c r="G46" t="n">
-        <v>6085.849050886393</v>
+        <v>5940.630924483033</v>
       </c>
       <c r="H46" t="n">
-        <v>3.00201992010037</v>
+        <v>2.20555137452046</v>
       </c>
     </row>
     <row r="47">
@@ -1742,25 +1742,25 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>4.314669681367405</v>
+        <v>6.505846085059565</v>
       </c>
       <c r="C47" t="n">
-        <v>0.04813583043250848</v>
+        <v>0.1368102803846985</v>
       </c>
       <c r="D47" t="n">
-        <v>1.913372028628269</v>
+        <v>1.847662045758862</v>
       </c>
       <c r="E47" t="n">
-        <v>18.90189716473033</v>
+        <v>16.38357075876769</v>
       </c>
       <c r="F47" t="n">
-        <v>0.177583243478573</v>
+        <v>0.1740709240386236</v>
       </c>
       <c r="G47" t="n">
-        <v>6097.369147823023</v>
+        <v>6021.970485233465</v>
       </c>
       <c r="H47" t="n">
-        <v>3.02688663840198</v>
+        <v>1.5338261691088</v>
       </c>
     </row>
     <row r="48">
@@ -1770,25 +1770,25 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>4.309949739632693</v>
+        <v>6.165295568434756</v>
       </c>
       <c r="C48" t="n">
-        <v>0.04841561796531345</v>
+        <v>0.1500237053996314</v>
       </c>
       <c r="D48" t="n">
-        <v>1.869169860568323</v>
+        <v>1.747443584117718</v>
       </c>
       <c r="E48" t="n">
-        <v>18.88065581152676</v>
+        <v>16.34432837527336</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1771996566684131</v>
+        <v>0.1622553933050735</v>
       </c>
       <c r="G48" t="n">
-        <v>6084.357178863426</v>
+        <v>6003.071211268045</v>
       </c>
       <c r="H48" t="n">
-        <v>2.88833702563434</v>
+        <v>1.19976940152117</v>
       </c>
     </row>
     <row r="49">
@@ -1798,25 +1798,25 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>4.313147416395938</v>
+        <v>6.242882949334528</v>
       </c>
       <c r="C49" t="n">
-        <v>0.04810577086706355</v>
+        <v>0.1244978357156378</v>
       </c>
       <c r="D49" t="n">
-        <v>1.906384893198811</v>
+        <v>1.824274728650611</v>
       </c>
       <c r="E49" t="n">
-        <v>18.89443795383838</v>
+        <v>15.3847453873767</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1774688919735027</v>
+        <v>0.1771111215350774</v>
       </c>
       <c r="G49" t="n">
-        <v>6094.433163024832</v>
+        <v>5989.139536737714</v>
       </c>
       <c r="H49" t="n">
-        <v>3.06677542003456</v>
+        <v>2.15979690794119</v>
       </c>
     </row>
     <row r="50">
@@ -1826,25 +1826,25 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>4.314772116834501</v>
+        <v>6.560397798765266</v>
       </c>
       <c r="C50" t="n">
-        <v>0.048244449214281</v>
+        <v>0.1960560498274057</v>
       </c>
       <c r="D50" t="n">
-        <v>1.908869352923811</v>
+        <v>1.845707272572226</v>
       </c>
       <c r="E50" t="n">
-        <v>18.90560456476441</v>
+        <v>17.81615784061537</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1776147822388874</v>
+        <v>0.1602872158195556</v>
       </c>
       <c r="G50" t="n">
-        <v>6097.605717263134</v>
+        <v>6062.38002919308</v>
       </c>
       <c r="H50" t="n">
-        <v>2.94950806024629</v>
+        <v>0.789541726663863</v>
       </c>
     </row>
     <row r="51">
@@ -1854,25 +1854,25 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>4.315089348459463</v>
+        <v>6.394752795474508</v>
       </c>
       <c r="C51" t="n">
-        <v>0.04850003931516885</v>
+        <v>1.072109248883338</v>
       </c>
       <c r="D51" t="n">
-        <v>1.89774268651815</v>
+        <v>1.83934413390327</v>
       </c>
       <c r="E51" t="n">
-        <v>18.91425536434833</v>
+        <v>20.96180391344331</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1776788204114127</v>
+        <v>0.1432971950036594</v>
       </c>
       <c r="G51" t="n">
-        <v>6097.794142341088</v>
+        <v>6151.790121709957</v>
       </c>
       <c r="H51" t="n">
-        <v>2.7545478311017</v>
+        <v>0.177207253965162</v>
       </c>
     </row>
     <row r="52">
@@ -1882,25 +1882,25 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>4.31611887505129</v>
+        <v>6.49742016253416</v>
       </c>
       <c r="C52" t="n">
-        <v>0.04802887869509437</v>
+        <v>0.1667358680108189</v>
       </c>
       <c r="D52" t="n">
-        <v>1.941614852506205</v>
+        <v>1.935071871056119</v>
       </c>
       <c r="E52" t="n">
-        <v>18.92276445333979</v>
+        <v>18.553428112793</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1779656592481932</v>
+        <v>0.168791809543327</v>
       </c>
       <c r="G52" t="n">
-        <v>6106.504969220665</v>
+        <v>6098.636880385499</v>
       </c>
       <c r="H52" t="n">
-        <v>3.05508121913967</v>
+        <v>0.898865974920357</v>
       </c>
     </row>
     <row r="53">
@@ -1910,25 +1910,25 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>4.308732712232721</v>
+        <v>6.229202045296178</v>
       </c>
       <c r="C53" t="n">
-        <v>0.04802817086706847</v>
+        <v>0.09546786113832946</v>
       </c>
       <c r="D53" t="n">
-        <v>1.875842315019584</v>
+        <v>1.733701529967859</v>
       </c>
       <c r="E53" t="n">
-        <v>18.86169988081957</v>
+        <v>11.85839342132717</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1772927628155981</v>
+        <v>0.194603331463759</v>
       </c>
       <c r="G53" t="n">
-        <v>6081.620905754966</v>
+        <v>5874.50279834992</v>
       </c>
       <c r="H53" t="n">
-        <v>3.11867322416569</v>
+        <v>3.48242013499206</v>
       </c>
     </row>
     <row r="54">
@@ -1938,25 +1938,25 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>4.316902980836411</v>
+        <v>6.674321189835283</v>
       </c>
       <c r="C54" t="n">
-        <v>0.04779237993258203</v>
+        <v>0.1054683793758516</v>
       </c>
       <c r="D54" t="n">
-        <v>1.968479143849813</v>
+        <v>1.993691440219586</v>
       </c>
       <c r="E54" t="n">
-        <v>18.92581315977814</v>
+        <v>15.58268693640461</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1781084344345726</v>
+        <v>0.1921554652486893</v>
       </c>
       <c r="G54" t="n">
-        <v>6109.520970927546</v>
+        <v>6019.566450946384</v>
       </c>
       <c r="H54" t="n">
-        <v>3.26748627015712</v>
+        <v>2.5781992386644</v>
       </c>
     </row>
     <row r="55">
@@ -1966,25 +1966,25 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>4.315537213060391</v>
+        <v>6.690891546738532</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0481481569678853</v>
+        <v>0.1321095145354841</v>
       </c>
       <c r="D55" t="n">
-        <v>1.912875381238611</v>
+        <v>1.842036642437915</v>
       </c>
       <c r="E55" t="n">
-        <v>18.89879510519889</v>
+        <v>15.69013715707436</v>
       </c>
       <c r="F55" t="n">
-        <v>0.177539386843287</v>
+        <v>0.1787370757718018</v>
       </c>
       <c r="G55" t="n">
-        <v>6096.529685363867</v>
+        <v>6001.445812336882</v>
       </c>
       <c r="H55" t="n">
-        <v>3.02848085071939</v>
+        <v>1.7109088228277</v>
       </c>
     </row>
     <row r="56">
@@ -1994,25 +1994,25 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>4.316673980434235</v>
+        <v>6.602366191020479</v>
       </c>
       <c r="C56" t="n">
-        <v>0.04797759227320326</v>
+        <v>0.1325950706371343</v>
       </c>
       <c r="D56" t="n">
-        <v>1.946822677725056</v>
+        <v>1.943115258093354</v>
       </c>
       <c r="E56" t="n">
-        <v>18.92166459974581</v>
+        <v>17.54260449860276</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1779577376325922</v>
+        <v>0.178978458678872</v>
       </c>
       <c r="G56" t="n">
-        <v>6106.739186938034</v>
+        <v>6070.83133390173</v>
       </c>
       <c r="H56" t="n">
-        <v>3.09930046979061</v>
+        <v>1.33787866661511</v>
       </c>
     </row>
     <row r="57">
@@ -2022,25 +2022,25 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>4.316676346406674</v>
+        <v>6.621886824050936</v>
       </c>
       <c r="C57" t="n">
-        <v>0.04797649284270009</v>
+        <v>0.1258975262095119</v>
       </c>
       <c r="D57" t="n">
-        <v>1.944659928942206</v>
+        <v>1.933424862704806</v>
       </c>
       <c r="E57" t="n">
-        <v>18.91844951454228</v>
+        <v>16.885850508223</v>
       </c>
       <c r="F57" t="n">
-        <v>0.178065601553428</v>
+        <v>0.1890397961656968</v>
       </c>
       <c r="G57" t="n">
-        <v>6105.692886088965</v>
+        <v>6053.165672451116</v>
       </c>
       <c r="H57" t="n">
-        <v>3.11049143793921</v>
+        <v>1.60833867845026</v>
       </c>
     </row>
     <row r="58">
@@ -2050,25 +2050,25 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>4.314775115835453</v>
+        <v>6.405012053177209</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0481373096921332</v>
+        <v>0.1529187012014044</v>
       </c>
       <c r="D58" t="n">
-        <v>1.918339416812178</v>
+        <v>1.869455460200386</v>
       </c>
       <c r="E58" t="n">
-        <v>18.90998458523961</v>
+        <v>17.84801968137856</v>
       </c>
       <c r="F58" t="n">
-        <v>0.177779760220302</v>
+        <v>0.1703221899900945</v>
       </c>
       <c r="G58" t="n">
-        <v>6100.165733276779</v>
+        <v>6068.237588889981</v>
       </c>
       <c r="H58" t="n">
-        <v>2.98917623964727</v>
+        <v>0.942619267650525</v>
       </c>
     </row>
     <row r="59">
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>4.316482874649223</v>
+        <v>6.633988083112888</v>
       </c>
       <c r="C59" t="n">
-        <v>0.04802413798985751</v>
+        <v>0.136666851863397</v>
       </c>
       <c r="D59" t="n">
-        <v>1.939848817468033</v>
+        <v>1.923503253228527</v>
       </c>
       <c r="E59" t="n">
-        <v>18.91819334362963</v>
+        <v>17.45980019515304</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1779563233589603</v>
+        <v>0.1810432253117997</v>
       </c>
       <c r="G59" t="n">
-        <v>6105.089154561283</v>
+        <v>6066.600294846329</v>
       </c>
       <c r="H59" t="n">
-        <v>3.0726298774653</v>
+        <v>1.23373832475539</v>
       </c>
     </row>
     <row r="60">
@@ -2106,25 +2106,25 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>4.307946609169336</v>
+        <v>5.562780110977503</v>
       </c>
       <c r="C60" t="n">
-        <v>0.04818122242057441</v>
+        <v>0.1163484429857835</v>
       </c>
       <c r="D60" t="n">
-        <v>1.883079138071993</v>
+        <v>1.783994709688302</v>
       </c>
       <c r="E60" t="n">
-        <v>18.89263104686214</v>
+        <v>17.41710853189803</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1775826194423831</v>
+        <v>0.1691685201248963</v>
       </c>
       <c r="G60" t="n">
-        <v>6089.882435939438</v>
+        <v>6040.857374280266</v>
       </c>
       <c r="H60" t="n">
-        <v>2.95413930948212</v>
+        <v>1.29765590508867</v>
       </c>
     </row>
     <row r="61">
@@ -2134,25 +2134,25 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>4.312892894740266</v>
+        <v>5.808373830527132</v>
       </c>
       <c r="C61" t="n">
-        <v>0.04789388769143576</v>
+        <v>0.1022018130786642</v>
       </c>
       <c r="D61" t="n">
-        <v>1.933192570555264</v>
+        <v>1.899239564008214</v>
       </c>
       <c r="E61" t="n">
-        <v>18.91164028799532</v>
+        <v>16.42472205122775</v>
       </c>
       <c r="F61" t="n">
-        <v>0.178036094431126</v>
+        <v>0.1913013451659752</v>
       </c>
       <c r="G61" t="n">
-        <v>6102.545151538214</v>
+        <v>6034.340073252853</v>
       </c>
       <c r="H61" t="n">
-        <v>3.16479720753621</v>
+        <v>2.32477252111688</v>
       </c>
     </row>
     <row r="62">
@@ -2162,25 +2162,25 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>4.313848311523753</v>
+        <v>6.081813948346559</v>
       </c>
       <c r="C62" t="n">
-        <v>0.04792893233896665</v>
+        <v>0.1152657667785659</v>
       </c>
       <c r="D62" t="n">
-        <v>1.943075235205927</v>
+        <v>1.929632761456351</v>
       </c>
       <c r="E62" t="n">
-        <v>18.91861132410456</v>
+        <v>17.10630794453375</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1779242721043241</v>
+        <v>0.1810002137641939</v>
       </c>
       <c r="G62" t="n">
-        <v>6105.436254690549</v>
+        <v>6055.141436582573</v>
       </c>
       <c r="H62" t="n">
-        <v>3.18485499819291</v>
+        <v>1.87666829525395</v>
       </c>
     </row>
     <row r="63">
@@ -2190,25 +2190,25 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>4.315744449845439</v>
+        <v>6.403938181804077</v>
       </c>
       <c r="C63" t="n">
-        <v>0.04797528014929453</v>
+        <v>0.111280103918015</v>
       </c>
       <c r="D63" t="n">
-        <v>1.931715232615676</v>
+        <v>1.893807536568459</v>
       </c>
       <c r="E63" t="n">
-        <v>18.91024928313762</v>
+        <v>16.27888467392842</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1778055562232715</v>
+        <v>0.1842858629895923</v>
       </c>
       <c r="G63" t="n">
-        <v>6101.96702922285</v>
+        <v>6026.891330331772</v>
       </c>
       <c r="H63" t="n">
-        <v>3.08180225296631</v>
+        <v>1.93834155815944</v>
       </c>
     </row>
     <row r="64">
@@ -2218,25 +2218,25 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>4.314707960518727</v>
+        <v>6.169717715697469</v>
       </c>
       <c r="C64" t="n">
-        <v>0.04803779857704595</v>
+        <v>0.1480335911674518</v>
       </c>
       <c r="D64" t="n">
-        <v>1.932547658389422</v>
+        <v>1.912328011229822</v>
       </c>
       <c r="E64" t="n">
-        <v>18.9194433757467</v>
+        <v>18.708134952268</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1781631692041135</v>
+        <v>0.1802905465383806</v>
       </c>
       <c r="G64" t="n">
-        <v>6104.629880263919</v>
+        <v>6103.103621438036</v>
       </c>
       <c r="H64" t="n">
-        <v>3.02859439946955</v>
+        <v>0.852821230928323</v>
       </c>
     </row>
     <row r="65">
@@ -2246,25 +2246,25 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>4.313264256586639</v>
+        <v>6.221010634040449</v>
       </c>
       <c r="C65" t="n">
-        <v>0.04809066810657003</v>
+        <v>0.1174032513788708</v>
       </c>
       <c r="D65" t="n">
-        <v>1.911347611616836</v>
+        <v>1.843423795368949</v>
       </c>
       <c r="E65" t="n">
-        <v>18.90123913694737</v>
+        <v>16.44221738575299</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1777133119259747</v>
+        <v>0.1819302223121418</v>
       </c>
       <c r="G65" t="n">
-        <v>6096.942017301517</v>
+        <v>6024.451853262538</v>
       </c>
       <c r="H65" t="n">
-        <v>3.03952086110993</v>
+        <v>1.63352557209041</v>
       </c>
     </row>
     <row r="66">
@@ -2274,25 +2274,25 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>4.314912774315188</v>
+        <v>6.189612166695173</v>
       </c>
       <c r="C66" t="n">
-        <v>0.0480561769359293</v>
+        <v>0.1567533260172946</v>
       </c>
       <c r="D66" t="n">
-        <v>1.931370882515968</v>
+        <v>1.910234294001017</v>
       </c>
       <c r="E66" t="n">
-        <v>18.91921112113345</v>
+        <v>18.79122407814355</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1782782785665843</v>
+        <v>0.1861379178055468</v>
       </c>
       <c r="G66" t="n">
-        <v>6104.491128025805</v>
+        <v>6107.390766364006</v>
       </c>
       <c r="H66" t="n">
-        <v>3.01077672606728</v>
+        <v>0.763697545771852</v>
       </c>
     </row>
     <row r="67">
@@ -2302,25 +2302,25 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>4.314477508874819</v>
+        <v>6.309439653109164</v>
       </c>
       <c r="C67" t="n">
-        <v>0.04801858435792673</v>
+        <v>0.1138712925963697</v>
       </c>
       <c r="D67" t="n">
-        <v>1.925187919161323</v>
+        <v>1.877021105855627</v>
       </c>
       <c r="E67" t="n">
-        <v>18.90720907024091</v>
+        <v>16.28782204017333</v>
       </c>
       <c r="F67" t="n">
-        <v>0.177805926893546</v>
+        <v>0.1851064872880797</v>
       </c>
       <c r="G67" t="n">
-        <v>6100.374706007342</v>
+        <v>6025.124853368689</v>
       </c>
       <c r="H67" t="n">
-        <v>3.09031413970713</v>
+        <v>1.84676862844508</v>
       </c>
     </row>
     <row r="68">
@@ -2330,25 +2330,25 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>4.316579243995825</v>
+        <v>6.927076917002655</v>
       </c>
       <c r="C68" t="n">
-        <v>0.04816257734537636</v>
+        <v>0.1280116645633828</v>
       </c>
       <c r="D68" t="n">
-        <v>1.914482311159283</v>
+        <v>1.845257368715296</v>
       </c>
       <c r="E68" t="n">
-        <v>18.89862638810334</v>
+        <v>15.47328861882301</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1777179665447843</v>
+        <v>0.1891750715323313</v>
       </c>
       <c r="G68" t="n">
-        <v>6096.82773177694</v>
+        <v>5998.751585771144</v>
       </c>
       <c r="H68" t="n">
-        <v>3.01316049119435</v>
+        <v>1.58200874645174</v>
       </c>
     </row>
     <row r="69">
@@ -2358,25 +2358,25 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>4.317013803221204</v>
+        <v>6.699643901434868</v>
       </c>
       <c r="C69" t="n">
-        <v>0.04819519506269738</v>
+        <v>0.2354073430000368</v>
       </c>
       <c r="D69" t="n">
-        <v>1.925849309641631</v>
+        <v>1.893624827756872</v>
       </c>
       <c r="E69" t="n">
-        <v>18.91549900377697</v>
+        <v>18.46976403842312</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1781382168177281</v>
+        <v>0.1804257808131425</v>
       </c>
       <c r="G69" t="n">
-        <v>6102.812253324743</v>
+        <v>6094.960237227433</v>
       </c>
       <c r="H69" t="n">
-        <v>2.94670575079592</v>
+        <v>0.508154260338524</v>
       </c>
     </row>
     <row r="70">
@@ -2386,25 +2386,25 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>4.323484245322135</v>
+        <v>9.294236449825402</v>
       </c>
       <c r="C70" t="n">
-        <v>0.04826857156764942</v>
+        <v>0.1690888492589634</v>
       </c>
       <c r="D70" t="n">
-        <v>1.922052082328261</v>
+        <v>1.853367645801081</v>
       </c>
       <c r="E70" t="n">
-        <v>18.8951194609483</v>
+        <v>13.66901573623925</v>
       </c>
       <c r="F70" t="n">
-        <v>0.1778104650330796</v>
+        <v>0.1990107968502438</v>
       </c>
       <c r="G70" t="n">
-        <v>6097.080403657976</v>
+        <v>5951.069472560403</v>
       </c>
       <c r="H70" t="n">
-        <v>2.92664659330899</v>
+        <v>1.00494573713038</v>
       </c>
     </row>
     <row r="71">
@@ -2414,25 +2414,25 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>4.320295819528936</v>
+        <v>7.931661204504449</v>
       </c>
       <c r="C71" t="n">
-        <v>0.04807964087784132</v>
+        <v>0.1468760418218165</v>
       </c>
       <c r="D71" t="n">
-        <v>1.947653585760527</v>
+        <v>1.933913639340375</v>
       </c>
       <c r="E71" t="n">
-        <v>18.91574364220003</v>
+        <v>15.71365318278152</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1779154502291644</v>
+        <v>0.1904341429517059</v>
       </c>
       <c r="G71" t="n">
-        <v>6105.195631993771</v>
+        <v>6018.056216579141</v>
       </c>
       <c r="H71" t="n">
-        <v>3.07280699453828</v>
+        <v>1.19975817728041</v>
       </c>
     </row>
     <row r="72">
@@ -2442,25 +2442,25 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>4.314526507962096</v>
+        <v>6.397251353262157</v>
       </c>
       <c r="C72" t="n">
-        <v>0.04795965505359046</v>
+        <v>0.102827849453546</v>
       </c>
       <c r="D72" t="n">
-        <v>1.925747879869418</v>
+        <v>1.869678242817091</v>
       </c>
       <c r="E72" t="n">
-        <v>18.90243795916988</v>
+        <v>14.94764089613978</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1777429714846726</v>
+        <v>0.1910298290265108</v>
       </c>
       <c r="G72" t="n">
-        <v>6099.14449192465</v>
+        <v>5984.658281664866</v>
       </c>
       <c r="H72" t="n">
-        <v>3.13846862350574</v>
+        <v>2.40177998854343</v>
       </c>
     </row>
     <row r="73">
@@ -2470,25 +2470,25 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>4.316224640345577</v>
+        <v>7.058917694952455</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0479683873731459</v>
+        <v>0.117045499295113</v>
       </c>
       <c r="D73" t="n">
-        <v>1.947177887324581</v>
+        <v>1.92849608217863</v>
       </c>
       <c r="E73" t="n">
-        <v>18.91334267678715</v>
+        <v>15.0089208747054</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1781170028932945</v>
+        <v>0.2001094418396893</v>
       </c>
       <c r="G73" t="n">
-        <v>6104.466673572226</v>
+        <v>5998.777932314621</v>
       </c>
       <c r="H73" t="n">
-        <v>3.22216526360596</v>
+        <v>2.02308942281062</v>
       </c>
     </row>
     <row r="74">
@@ -2498,25 +2498,25 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>4.315012262109082</v>
+        <v>6.425848871837118</v>
       </c>
       <c r="C74" t="n">
-        <v>0.04802936241939648</v>
+        <v>0.1073877402118111</v>
       </c>
       <c r="D74" t="n">
-        <v>1.92124506444448</v>
+        <v>1.863031353965911</v>
       </c>
       <c r="E74" t="n">
-        <v>18.90296979755569</v>
+        <v>15.68831172541631</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1777213104907</v>
+        <v>0.18777616360447</v>
       </c>
       <c r="G74" t="n">
-        <v>6098.762395114431</v>
+        <v>6005.403579076898</v>
       </c>
       <c r="H74" t="n">
-        <v>3.07148138706167</v>
+        <v>1.98106243700688</v>
       </c>
     </row>
     <row r="75">
@@ -2526,25 +2526,25 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>4.335765557894311</v>
+        <v>12.44530965906074</v>
       </c>
       <c r="C75" t="n">
-        <v>0.04907908362843178</v>
+        <v>3.101986981184749</v>
       </c>
       <c r="D75" t="n">
-        <v>1.922348415258987</v>
+        <v>1.866407804038807</v>
       </c>
       <c r="E75" t="n">
-        <v>18.90099077176541</v>
+        <v>15.40206974170273</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1779427485077297</v>
+        <v>0.1955534131462937</v>
       </c>
       <c r="G75" t="n">
-        <v>6099.066927323455</v>
+        <v>6008.937920026613</v>
       </c>
       <c r="H75" t="n">
-        <v>2.59762752079182</v>
+        <v>0.167387670213718</v>
       </c>
     </row>
     <row r="76">
@@ -2554,25 +2554,25 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>4.31661593480214</v>
+        <v>6.672548087854491</v>
       </c>
       <c r="C76" t="n">
-        <v>0.04804910218361208</v>
+        <v>0.123716783964168</v>
       </c>
       <c r="D76" t="n">
-        <v>1.933760232040006</v>
+        <v>1.904338981827453</v>
       </c>
       <c r="E76" t="n">
-        <v>18.91394098062774</v>
+        <v>17.05358789504622</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1778575021106266</v>
+        <v>0.1826733443284718</v>
       </c>
       <c r="G76" t="n">
-        <v>6103.24186978239</v>
+        <v>6051.259594109819</v>
       </c>
       <c r="H76" t="n">
-        <v>3.0459521443145</v>
+        <v>1.25616018482923</v>
       </c>
     </row>
     <row r="77">
@@ -2582,25 +2582,25 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>4.312876518227659</v>
+        <v>5.840135196959972</v>
       </c>
       <c r="C77" t="n">
-        <v>0.04791015812259221</v>
+        <v>0.09429609035164566</v>
       </c>
       <c r="D77" t="n">
-        <v>1.924983015390036</v>
+        <v>1.872886296171941</v>
       </c>
       <c r="E77" t="n">
-        <v>18.90521759218375</v>
+        <v>15.75671946533424</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1777975257122232</v>
+        <v>0.1891534531626454</v>
       </c>
       <c r="G77" t="n">
-        <v>6099.778105351225</v>
+        <v>6008.165422175542</v>
       </c>
       <c r="H77" t="n">
-        <v>3.13801408382849</v>
+        <v>2.47428199568563</v>
       </c>
     </row>
     <row r="78">
@@ -2610,25 +2610,25 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>4.310907708417623</v>
+        <v>5.867900289100151</v>
       </c>
       <c r="C78" t="n">
-        <v>0.04819777046209932</v>
+        <v>0.136730799767759</v>
       </c>
       <c r="D78" t="n">
-        <v>1.900732543578642</v>
+        <v>1.828831581501993</v>
       </c>
       <c r="E78" t="n">
-        <v>18.90379411337273</v>
+        <v>18.18942088199726</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1777164320648381</v>
+        <v>0.1690793065404214</v>
       </c>
       <c r="G78" t="n">
-        <v>6095.789511208252</v>
+        <v>6070.6782061609</v>
       </c>
       <c r="H78" t="n">
-        <v>2.97339392499095</v>
+        <v>0.838289488251351</v>
       </c>
     </row>
     <row r="79">
@@ -2638,25 +2638,25 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>4.312117255858522</v>
+        <v>5.650802188945596</v>
       </c>
       <c r="C79" t="n">
-        <v>0.04786853640022164</v>
+        <v>0.09226005908229007</v>
       </c>
       <c r="D79" t="n">
-        <v>1.926272877897938</v>
+        <v>1.872621978205242</v>
       </c>
       <c r="E79" t="n">
-        <v>18.9041687597111</v>
+        <v>15.29476911674096</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1776626029568718</v>
+        <v>0.1851974781485854</v>
       </c>
       <c r="G79" t="n">
-        <v>6099.557391166879</v>
+        <v>5992.03859214401</v>
       </c>
       <c r="H79" t="n">
-        <v>3.18734662310594</v>
+        <v>2.83145692973795</v>
       </c>
     </row>
     <row r="80">
@@ -2666,25 +2666,25 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>4.316738150788997</v>
+        <v>6.612274247323016</v>
       </c>
       <c r="C80" t="n">
-        <v>0.04799844549817538</v>
+        <v>0.1239342963905471</v>
       </c>
       <c r="D80" t="n">
-        <v>1.943843724164012</v>
+        <v>1.934844426271552</v>
       </c>
       <c r="E80" t="n">
-        <v>18.9203527263991</v>
+        <v>17.56016974553105</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1779223060895702</v>
+        <v>0.1804318515953449</v>
       </c>
       <c r="G80" t="n">
-        <v>6106.078048572756</v>
+        <v>6069.757472983983</v>
       </c>
       <c r="H80" t="n">
-        <v>3.07678936276382</v>
+        <v>1.20073216177561</v>
       </c>
     </row>
     <row r="81">
@@ -2694,25 +2694,25 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>4.314693783979748</v>
+        <v>6.231214279884074</v>
       </c>
       <c r="C81" t="n">
-        <v>0.04776254489726771</v>
+        <v>0.08811898011806005</v>
       </c>
       <c r="D81" t="n">
-        <v>1.951585753398027</v>
+        <v>1.936885116553712</v>
       </c>
       <c r="E81" t="n">
-        <v>18.91425281713421</v>
+        <v>14.54195237856897</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1780090607527834</v>
+        <v>0.1974502117750422</v>
       </c>
       <c r="G81" t="n">
-        <v>6104.908428713443</v>
+        <v>5981.299616944782</v>
       </c>
       <c r="H81" t="n">
-        <v>3.27429486708409</v>
+        <v>3.07968270126905</v>
       </c>
     </row>
     <row r="82">
@@ -2722,25 +2722,25 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>4.311110478722999</v>
+        <v>5.090451487798421</v>
       </c>
       <c r="C82" t="n">
-        <v>0.04772389158584026</v>
+        <v>0.08158145192841518</v>
       </c>
       <c r="D82" t="n">
-        <v>1.946182578560589</v>
+        <v>1.937258035801912</v>
       </c>
       <c r="E82" t="n">
-        <v>18.91975129523702</v>
+        <v>16.95042366236835</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1780476698517797</v>
+        <v>0.1895307055862604</v>
       </c>
       <c r="G82" t="n">
-        <v>6106.013808928858</v>
+        <v>6051.516779864954</v>
       </c>
       <c r="H82" t="n">
-        <v>3.25215212374154</v>
+        <v>2.74659033531699</v>
       </c>
     </row>
     <row r="83">
@@ -2750,25 +2750,25 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>4.31534724386268</v>
+        <v>4.94967396554802</v>
       </c>
       <c r="C83" t="n">
-        <v>0.04792080397838618</v>
+        <v>0.7193377566859801</v>
       </c>
       <c r="D83" t="n">
-        <v>1.969697205576686</v>
+        <v>2.057148048124391</v>
       </c>
       <c r="E83" t="n">
-        <v>18.95194993290878</v>
+        <v>24.38699173440693</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1786044432340528</v>
+        <v>0.1838382884201696</v>
       </c>
       <c r="G83" t="n">
-        <v>6118.056867215951</v>
+        <v>6296.127657848623</v>
       </c>
       <c r="H83" t="n">
-        <v>2.98948444247858</v>
+        <v>0.140187214870348</v>
       </c>
     </row>
     <row r="84">
@@ -2778,25 +2778,25 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>4.314462446482253</v>
+        <v>6.098387705009142</v>
       </c>
       <c r="C84" t="n">
-        <v>0.0477117260419252</v>
+        <v>0.08432153006187973</v>
       </c>
       <c r="D84" t="n">
-        <v>1.95945953106602</v>
+        <v>1.958626327603191</v>
       </c>
       <c r="E84" t="n">
-        <v>18.9179472714397</v>
+        <v>14.43047365168727</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1780368676678565</v>
+        <v>0.1971799879064731</v>
       </c>
       <c r="G84" t="n">
-        <v>6106.501377210031</v>
+        <v>5979.07573399269</v>
       </c>
       <c r="H84" t="n">
-        <v>3.32595244292596</v>
+        <v>3.2994265344782</v>
       </c>
     </row>
     <row r="85">
@@ -2806,25 +2806,25 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>4.319385996139594</v>
+        <v>6.839097573893261</v>
       </c>
       <c r="C85" t="n">
-        <v>0.0475203460753887</v>
+        <v>0.07953019511580586</v>
       </c>
       <c r="D85" t="n">
-        <v>2.09359453597365</v>
+        <v>2.529805843728454</v>
       </c>
       <c r="E85" t="n">
-        <v>18.98887626627374</v>
+        <v>17.21323391550193</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1791111257388793</v>
+        <v>0.2000917821300227</v>
       </c>
       <c r="G85" t="n">
-        <v>6129.530779480277</v>
+        <v>6116.052681542653</v>
       </c>
       <c r="H85" t="n">
-        <v>3.64916303375898</v>
+        <v>3.26644588886593</v>
       </c>
     </row>
     <row r="86">
@@ -2834,25 +2834,25 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>4.315213723307379</v>
+        <v>5.857994701699264</v>
       </c>
       <c r="C86" t="n">
-        <v>0.04798227095489062</v>
+        <v>0.166241082265456</v>
       </c>
       <c r="D86" t="n">
-        <v>1.945544201540035</v>
+        <v>1.957327085334748</v>
       </c>
       <c r="E86" t="n">
-        <v>18.92949759743087</v>
+        <v>20.04788138944968</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1784865519832486</v>
+        <v>0.1902778751915961</v>
       </c>
       <c r="G86" t="n">
-        <v>6109.035862689682</v>
+        <v>6153.011569231935</v>
       </c>
       <c r="H86" t="n">
-        <v>3.02166898627201</v>
+        <v>0.513967587692551</v>
       </c>
     </row>
     <row r="87">
@@ -2862,25 +2862,25 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>4.310326196389929</v>
+        <v>5.508277031710549</v>
       </c>
       <c r="C87" t="n">
-        <v>0.04791920497776107</v>
+        <v>0.08946823060190198</v>
       </c>
       <c r="D87" t="n">
-        <v>1.914564968767913</v>
+        <v>1.850653931995295</v>
       </c>
       <c r="E87" t="n">
-        <v>18.90284541455149</v>
+        <v>16.40697032775198</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1777169446161353</v>
+        <v>0.185662070724524</v>
       </c>
       <c r="G87" t="n">
-        <v>6097.719867042345</v>
+        <v>6022.521646513665</v>
       </c>
       <c r="H87" t="n">
-        <v>3.11652456274917</v>
+        <v>2.22321871369711</v>
       </c>
     </row>
     <row r="88">
@@ -2890,25 +2890,25 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>4.309245483614962</v>
+        <v>4.415417792689404</v>
       </c>
       <c r="C88" t="n">
-        <v>0.04775006515748456</v>
+        <v>0.08872009346672251</v>
       </c>
       <c r="D88" t="n">
-        <v>1.947262302382449</v>
+        <v>1.972765003040205</v>
       </c>
       <c r="E88" t="n">
-        <v>18.93697038954178</v>
+        <v>21.96546785363425</v>
       </c>
       <c r="F88" t="n">
-        <v>0.17826245917541</v>
+        <v>0.1706859041297627</v>
       </c>
       <c r="G88" t="n">
-        <v>6111.015107292644</v>
+        <v>6203.080062461418</v>
       </c>
       <c r="H88" t="n">
-        <v>3.1128712153691</v>
+        <v>0.9349564276842171</v>
       </c>
     </row>
     <row r="89">
@@ -2918,25 +2918,25 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>4.310119137494409</v>
+        <v>5.105853890157678</v>
       </c>
       <c r="C89" t="n">
-        <v>0.04776490668896415</v>
+        <v>0.08261511852975927</v>
       </c>
       <c r="D89" t="n">
-        <v>1.926260631828709</v>
+        <v>1.867872508600927</v>
       </c>
       <c r="E89" t="n">
-        <v>18.90160711949107</v>
+        <v>14.57849959089336</v>
       </c>
       <c r="F89" t="n">
-        <v>0.177690990462275</v>
+        <v>0.18935793831813</v>
       </c>
       <c r="G89" t="n">
-        <v>6098.824353745971</v>
+        <v>5969.961587683523</v>
       </c>
       <c r="H89" t="n">
-        <v>3.26025579592779</v>
+        <v>3.41077122313594</v>
       </c>
     </row>
     <row r="90">
@@ -2946,25 +2946,25 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>4.314813431932199</v>
+        <v>5.861638393026816</v>
       </c>
       <c r="C90" t="n">
-        <v>0.04775576806451076</v>
+        <v>0.08955288544653955</v>
       </c>
       <c r="D90" t="n">
-        <v>1.960789310979921</v>
+        <v>1.972130568961327</v>
       </c>
       <c r="E90" t="n">
-        <v>18.92297450777681</v>
+        <v>15.85457872135166</v>
       </c>
       <c r="F90" t="n">
-        <v>0.178078690222444</v>
+        <v>0.1933740464016753</v>
       </c>
       <c r="G90" t="n">
-        <v>6108.167352974965</v>
+        <v>6024.091452054477</v>
       </c>
       <c r="H90" t="n">
-        <v>3.27240712345103</v>
+        <v>2.86109507233899</v>
       </c>
     </row>
     <row r="91">
@@ -2974,25 +2974,25 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>4.313024039320045</v>
+        <v>5.362836348515222</v>
       </c>
       <c r="C91" t="n">
-        <v>0.04800625565630359</v>
+        <v>0.1847687743104962</v>
       </c>
       <c r="D91" t="n">
-        <v>1.933733525529099</v>
+        <v>1.929617876677849</v>
       </c>
       <c r="E91" t="n">
-        <v>18.92799885205786</v>
+        <v>20.92581651092864</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1782219886326539</v>
+        <v>0.1727269476412222</v>
       </c>
       <c r="G91" t="n">
-        <v>6107.047645422275</v>
+        <v>6169.520796099485</v>
       </c>
       <c r="H91" t="n">
-        <v>2.98338611282331</v>
+        <v>0.401965833733935</v>
       </c>
     </row>
     <row r="92">
@@ -3002,25 +3002,25 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>4.312072346630474</v>
+        <v>6.322294393995475</v>
       </c>
       <c r="C92" t="n">
-        <v>0.04836885644265217</v>
+        <v>0.1217993688024259</v>
       </c>
       <c r="D92" t="n">
-        <v>1.876439128527106</v>
+        <v>1.761262858950454</v>
       </c>
       <c r="E92" t="n">
-        <v>18.88222481274761</v>
+        <v>15.9757687571753</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1775197637976823</v>
+        <v>0.1839563907685597</v>
       </c>
       <c r="G92" t="n">
-        <v>6086.396989471655</v>
+        <v>5998.728827816299</v>
       </c>
       <c r="H92" t="n">
-        <v>2.88078171651578</v>
+        <v>1.17051541745755</v>
       </c>
     </row>
     <row r="93">
@@ -3030,25 +3030,25 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>4.307160034430119</v>
+        <v>4.364501357856684</v>
       </c>
       <c r="C93" t="n">
-        <v>0.04841080900157316</v>
+        <v>1.156018771384816</v>
       </c>
       <c r="D93" t="n">
-        <v>1.883832447457815</v>
+        <v>1.83070021326217</v>
       </c>
       <c r="E93" t="n">
-        <v>18.92504381193654</v>
+        <v>24.24724473031711</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1781855035313572</v>
+        <v>0.2100256821736897</v>
       </c>
       <c r="G93" t="n">
-        <v>6097.60575071761</v>
+        <v>6254.211192272335</v>
       </c>
       <c r="H93" t="n">
-        <v>2.66935422086929</v>
+        <v>0.115764834010643</v>
       </c>
     </row>
     <row r="94">
@@ -3058,25 +3058,25 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>4.310778814696841</v>
+        <v>5.345247977359299</v>
       </c>
       <c r="C94" t="n">
-        <v>0.04778311725196251</v>
+        <v>0.08529696837216331</v>
       </c>
       <c r="D94" t="n">
-        <v>1.926418138892862</v>
+        <v>1.866540758310504</v>
       </c>
       <c r="E94" t="n">
-        <v>18.90048946057008</v>
+        <v>14.27260088996741</v>
       </c>
       <c r="F94" t="n">
-        <v>0.17772401472599</v>
+        <v>0.1918959157958071</v>
       </c>
       <c r="G94" t="n">
-        <v>6098.57787415017</v>
+        <v>5962.040370839647</v>
       </c>
       <c r="H94" t="n">
-        <v>3.25773849556913</v>
+        <v>3.38841298208948</v>
       </c>
     </row>
     <row r="95">
@@ -3086,25 +3086,25 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>4.314312813974333</v>
+        <v>5.760760516130543</v>
       </c>
       <c r="C95" t="n">
-        <v>0.04777735865715983</v>
+        <v>0.09104233271928891</v>
       </c>
       <c r="D95" t="n">
-        <v>1.95816251973585</v>
+        <v>1.9711892924616</v>
       </c>
       <c r="E95" t="n">
-        <v>18.92499841575829</v>
+        <v>16.89735444621422</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1780636871335876</v>
+        <v>0.1881625504797545</v>
       </c>
       <c r="G95" t="n">
-        <v>6108.596689083961</v>
+        <v>6054.284448261405</v>
       </c>
       <c r="H95" t="n">
-        <v>3.23559522802013</v>
+        <v>2.46628795836937</v>
       </c>
     </row>
     <row r="96">
@@ -3114,25 +3114,25 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>4.313177048498797</v>
+        <v>5.566251010160735</v>
       </c>
       <c r="C96" t="n">
-        <v>0.04775792586349463</v>
+        <v>0.08739996089040498</v>
       </c>
       <c r="D96" t="n">
-        <v>1.947811431571975</v>
+        <v>1.931043398415162</v>
       </c>
       <c r="E96" t="n">
-        <v>18.91507519772686</v>
+        <v>15.34667808077602</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1779192819510393</v>
+        <v>0.190886384421062</v>
       </c>
       <c r="G96" t="n">
-        <v>6104.786156277105</v>
+        <v>6002.409990385622</v>
       </c>
       <c r="H96" t="n">
-        <v>3.27007626431469</v>
+        <v>3.12001954047574</v>
       </c>
     </row>
     <row r="97">
@@ -3142,25 +3142,25 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>4.317159915148569</v>
+        <v>6.630163742160376</v>
       </c>
       <c r="C97" t="n">
-        <v>0.04785484919096186</v>
+        <v>0.1033582686483546</v>
       </c>
       <c r="D97" t="n">
-        <v>1.962138357220352</v>
+        <v>1.979346358328362</v>
       </c>
       <c r="E97" t="n">
-        <v>18.92490048934884</v>
+        <v>16.31980254299577</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1780553391474004</v>
+        <v>0.1909279382043194</v>
       </c>
       <c r="G97" t="n">
-        <v>6108.904388316868</v>
+        <v>6039.563562261192</v>
       </c>
       <c r="H97" t="n">
-        <v>3.19818317607795</v>
+        <v>2.07472136450041</v>
       </c>
     </row>
     <row r="98">
@@ -3170,25 +3170,25 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>4.316086949010645</v>
+        <v>6.561822526476374</v>
       </c>
       <c r="C98" t="n">
-        <v>0.04797444423674858</v>
+        <v>0.1076417382458647</v>
       </c>
       <c r="D98" t="n">
-        <v>1.936432704053836</v>
+        <v>1.904456717266275</v>
       </c>
       <c r="E98" t="n">
-        <v>18.9116360576526</v>
+        <v>16.0331158966144</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1777679224882152</v>
+        <v>0.1853285516581944</v>
       </c>
       <c r="G98" t="n">
-        <v>6102.823576771575</v>
+        <v>6019.923935828831</v>
       </c>
       <c r="H98" t="n">
-        <v>3.1122114096255</v>
+        <v>1.91316330213507</v>
       </c>
     </row>
     <row r="99">
@@ -3198,25 +3198,25 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>4.316358626694795</v>
+        <v>6.981527846848456</v>
       </c>
       <c r="C99" t="n">
-        <v>0.0478879192342195</v>
+        <v>0.09674702873177603</v>
       </c>
       <c r="D99" t="n">
-        <v>1.941113522825113</v>
+        <v>1.907120144737861</v>
       </c>
       <c r="E99" t="n">
-        <v>18.90855180907712</v>
+        <v>14.47849396217759</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1778216485177109</v>
+        <v>0.1939639405232262</v>
       </c>
       <c r="G99" t="n">
-        <v>6102.414004894785</v>
+        <v>5974.996944334433</v>
       </c>
       <c r="H99" t="n">
-        <v>3.18014238836952</v>
+        <v>2.42558918136152</v>
       </c>
     </row>
     <row r="100">
@@ -3226,25 +3226,25 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>4.317645721941362</v>
+        <v>7.059821465151907</v>
       </c>
       <c r="C100" t="n">
-        <v>0.04796601696422832</v>
+        <v>0.1102155248239584</v>
       </c>
       <c r="D100" t="n">
-        <v>1.944471193436883</v>
+        <v>1.923974556521945</v>
       </c>
       <c r="E100" t="n">
-        <v>18.91408512949582</v>
+        <v>15.63340790538138</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1778454397548847</v>
+        <v>0.189553675910706</v>
       </c>
       <c r="G100" t="n">
-        <v>6104.33654880276</v>
+        <v>6011.846320538583</v>
       </c>
       <c r="H100" t="n">
-        <v>3.12466063878906</v>
+        <v>1.79301084444518</v>
       </c>
     </row>
     <row r="101">
@@ -3254,25 +3254,25 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>4.312712424760377</v>
+        <v>6.183345271275019</v>
       </c>
       <c r="C101" t="n">
-        <v>0.04798716889726612</v>
+        <v>0.09591641388429482</v>
       </c>
       <c r="D101" t="n">
-        <v>1.909085527341476</v>
+        <v>1.823558371724149</v>
       </c>
       <c r="E101" t="n">
-        <v>18.89120923819567</v>
+        <v>14.2722761999233</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1775073738386262</v>
+        <v>0.1895283886832802</v>
       </c>
       <c r="G101" t="n">
-        <v>6094.025714968097</v>
+        <v>5956.431875008371</v>
       </c>
       <c r="H101" t="n">
-        <v>3.11649618883642</v>
+        <v>2.61457227840742</v>
       </c>
     </row>
     <row r="102">
@@ -3282,25 +3282,25 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>4.31791946162388</v>
+        <v>7.322215552368988</v>
       </c>
       <c r="C102" t="n">
-        <v>0.04817597087102562</v>
+        <v>0.122346758541814</v>
       </c>
       <c r="D102" t="n">
-        <v>1.91508669088145</v>
+        <v>1.843760012045669</v>
       </c>
       <c r="E102" t="n">
-        <v>18.89716640170861</v>
+        <v>15.04606977928093</v>
       </c>
       <c r="F102" t="n">
-        <v>0.1776177559347612</v>
+        <v>0.1898118653817275</v>
       </c>
       <c r="G102" t="n">
-        <v>6096.516652330129</v>
+        <v>5985.010978265129</v>
       </c>
       <c r="H102" t="n">
-        <v>2.99273385589401</v>
+        <v>1.4575558630956</v>
       </c>
     </row>
     <row r="103">
@@ -3310,25 +3310,25 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>4.315371014094842</v>
+        <v>5.940188168392357</v>
       </c>
       <c r="C103" t="n">
-        <v>0.04790539499718647</v>
+        <v>0.1322523109900929</v>
       </c>
       <c r="D103" t="n">
-        <v>1.956705481273718</v>
+        <v>1.985876632560521</v>
       </c>
       <c r="E103" t="n">
-        <v>18.93340047385241</v>
+        <v>19.82106213587933</v>
       </c>
       <c r="F103" t="n">
-        <v>0.1781097872707008</v>
+        <v>0.1670709110651419</v>
       </c>
       <c r="G103" t="n">
-        <v>6111.005189997381</v>
+        <v>6141.657533846258</v>
       </c>
       <c r="H103" t="n">
-        <v>3.09528099801354</v>
+        <v>0.782794550140865</v>
       </c>
     </row>
     <row r="104">
@@ -3338,25 +3338,25 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>4.31806407462792</v>
+        <v>7.265398483795515</v>
       </c>
       <c r="C104" t="n">
-        <v>0.04784883528661099</v>
+        <v>0.1011261623832296</v>
       </c>
       <c r="D104" t="n">
-        <v>1.961850916398845</v>
+        <v>1.971090440912154</v>
       </c>
       <c r="E104" t="n">
-        <v>18.92130446900426</v>
+        <v>15.19370659461398</v>
       </c>
       <c r="F104" t="n">
-        <v>0.1780313275577715</v>
+        <v>0.1945714042659757</v>
       </c>
       <c r="G104" t="n">
-        <v>6107.777370676588</v>
+        <v>6005.073521007291</v>
       </c>
       <c r="H104" t="n">
-        <v>3.20680288558643</v>
+        <v>2.14673948303121</v>
       </c>
     </row>
     <row r="105">
@@ -3366,25 +3366,25 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>4.317834539324167</v>
+        <v>6.932118312754436</v>
       </c>
       <c r="C105" t="n">
-        <v>0.0479420951864933</v>
+        <v>0.1126228288640456</v>
       </c>
       <c r="D105" t="n">
-        <v>1.952014346685253</v>
+        <v>1.949118454108045</v>
       </c>
       <c r="E105" t="n">
-        <v>18.91974588034859</v>
+        <v>16.23818807938896</v>
       </c>
       <c r="F105" t="n">
-        <v>0.1779138667456159</v>
+        <v>0.1873808746756701</v>
       </c>
       <c r="G105" t="n">
-        <v>6106.622787680339</v>
+        <v>6032.819031920348</v>
       </c>
       <c r="H105" t="n">
-        <v>3.13467993979925</v>
+        <v>1.72255950729026</v>
       </c>
     </row>
     <row r="106">
@@ -3394,25 +3394,25 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>4.316992068181599</v>
+        <v>7.011191949225744</v>
       </c>
       <c r="C106" t="n">
-        <v>0.04793869988600553</v>
+        <v>0.1060049988301243</v>
       </c>
       <c r="D106" t="n">
-        <v>1.943702759786829</v>
+        <v>1.918997537752738</v>
       </c>
       <c r="E106" t="n">
-        <v>18.9122621643381</v>
+        <v>15.19572125600696</v>
       </c>
       <c r="F106" t="n">
-        <v>0.177850545359474</v>
+        <v>0.1915694651012004</v>
       </c>
       <c r="G106" t="n">
-        <v>6103.72962168361</v>
+        <v>5998.241632479476</v>
       </c>
       <c r="H106" t="n">
-        <v>3.15612331269439</v>
+        <v>2.03696420591727</v>
       </c>
     </row>
     <row r="107">
@@ -3422,25 +3422,25 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>4.317860747648939</v>
+        <v>7.187536899742531</v>
       </c>
       <c r="C107" t="n">
-        <v>0.04791234155731497</v>
+        <v>0.1066175884857492</v>
       </c>
       <c r="D107" t="n">
-        <v>1.952831845750916</v>
+        <v>1.946162751871354</v>
       </c>
       <c r="E107" t="n">
-        <v>18.91740057929941</v>
+        <v>15.38544483738472</v>
       </c>
       <c r="F107" t="n">
-        <v>0.1779751183244735</v>
+        <v>0.1939180525120725</v>
       </c>
       <c r="G107" t="n">
-        <v>6106.016308309742</v>
+        <v>6008.463548002667</v>
       </c>
       <c r="H107" t="n">
-        <v>3.16669032037766</v>
+        <v>1.94031808634841</v>
       </c>
     </row>
     <row r="108">
@@ -3450,25 +3450,25 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>4.315869195953695</v>
+        <v>6.59555834198065</v>
       </c>
       <c r="C108" t="n">
-        <v>0.04783080659472642</v>
+        <v>0.09560042383571303</v>
       </c>
       <c r="D108" t="n">
-        <v>1.952458471270711</v>
+        <v>1.942199483731168</v>
       </c>
       <c r="E108" t="n">
-        <v>18.91612112605856</v>
+        <v>15.01059342761059</v>
       </c>
       <c r="F108" t="n">
-        <v>0.1779321461747753</v>
+        <v>0.1931840745921748</v>
       </c>
       <c r="G108" t="n">
-        <v>6105.522812677236</v>
+        <v>5994.785791333878</v>
       </c>
       <c r="H108" t="n">
-        <v>3.23537484072</v>
+        <v>2.58224482109221</v>
       </c>
     </row>
     <row r="109">
@@ -3478,25 +3478,25 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>4.318556875338126</v>
+        <v>7.009728723949873</v>
       </c>
       <c r="C109" t="n">
-        <v>0.04796190468724339</v>
+        <v>0.1229805867096706</v>
       </c>
       <c r="D109" t="n">
-        <v>1.958131849817798</v>
+        <v>1.972234989228286</v>
       </c>
       <c r="E109" t="n">
-        <v>18.92510740253231</v>
+        <v>17.02464568046304</v>
       </c>
       <c r="F109" t="n">
-        <v>0.1780128093791963</v>
+        <v>0.186274902144569</v>
       </c>
       <c r="G109" t="n">
-        <v>6108.737446264817</v>
+        <v>6059.955376701552</v>
       </c>
       <c r="H109" t="n">
-        <v>3.11584277927709</v>
+        <v>1.36424129128105</v>
       </c>
     </row>
     <row r="110">
@@ -3506,25 +3506,25 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>4.317548322252931</v>
+        <v>7.024035944559613</v>
       </c>
       <c r="C110" t="n">
-        <v>0.04795571760321202</v>
+        <v>0.1098955340574007</v>
       </c>
       <c r="D110" t="n">
-        <v>1.946757484434372</v>
+        <v>1.930867011761905</v>
       </c>
       <c r="E110" t="n">
-        <v>18.91545788464287</v>
+        <v>15.70572882657025</v>
       </c>
       <c r="F110" t="n">
-        <v>0.1778850664349947</v>
+        <v>0.1904125886311653</v>
       </c>
       <c r="G110" t="n">
-        <v>6104.937529229477</v>
+        <v>6015.128234568957</v>
       </c>
       <c r="H110" t="n">
-        <v>3.13691975921418</v>
+        <v>1.80739417031347</v>
       </c>
     </row>
     <row r="111">
@@ -3534,25 +3534,25 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>4.317146244485076</v>
+        <v>6.744097981947831</v>
       </c>
       <c r="C111" t="n">
-        <v>0.04787481952574579</v>
+        <v>0.1027209825339442</v>
       </c>
       <c r="D111" t="n">
-        <v>1.957078562823295</v>
+        <v>1.962115684370663</v>
       </c>
       <c r="E111" t="n">
-        <v>18.92135424954713</v>
+        <v>15.9592238108159</v>
       </c>
       <c r="F111" t="n">
-        <v>0.1780215948259622</v>
+        <v>0.1926744972856258</v>
       </c>
       <c r="G111" t="n">
-        <v>6107.490358584006</v>
+        <v>6027.05761797145</v>
       </c>
       <c r="H111" t="n">
-        <v>3.18584980922782</v>
+        <v>2.06473421400459</v>
       </c>
     </row>
     <row r="112">
@@ -3562,25 +3562,25 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>4.318073279900521</v>
+        <v>7.257862809898134</v>
       </c>
       <c r="C112" t="n">
-        <v>0.0478790022851343</v>
+        <v>0.103331624547697</v>
       </c>
       <c r="D112" t="n">
-        <v>1.958471032662247</v>
+        <v>1.961999351379868</v>
       </c>
       <c r="E112" t="n">
-        <v>18.91997872596213</v>
+        <v>15.31526552843051</v>
       </c>
       <c r="F112" t="n">
-        <v>0.1780167333425322</v>
+        <v>0.1947370707372415</v>
       </c>
       <c r="G112" t="n">
-        <v>6107.178574982632</v>
+        <v>6008.052732426955</v>
       </c>
       <c r="H112" t="n">
-        <v>3.18795201909234</v>
+        <v>2.01076424577759</v>
       </c>
     </row>
     <row r="113">
@@ -3590,25 +3590,25 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>4.314449170695807</v>
+        <v>5.893671424861391</v>
       </c>
       <c r="C113" t="n">
-        <v>0.04781074049147699</v>
+        <v>0.09201876841537994</v>
       </c>
       <c r="D113" t="n">
-        <v>1.9510139090208</v>
+        <v>1.945453477591804</v>
       </c>
       <c r="E113" t="n">
-        <v>18.91922259674176</v>
+        <v>16.15626627508933</v>
       </c>
       <c r="F113" t="n">
-        <v>0.1779429542885684</v>
+        <v>0.1887017807353155</v>
       </c>
       <c r="G113" t="n">
-        <v>6106.301480032299</v>
+        <v>6028.368856544848</v>
       </c>
       <c r="H113" t="n">
-        <v>3.22302596908203</v>
+        <v>2.59165660645792</v>
       </c>
     </row>
     <row r="114">
@@ -3618,25 +3618,25 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>4.319577225633187</v>
+        <v>7.203469340293452</v>
       </c>
       <c r="C114" t="n">
-        <v>0.04795098473915657</v>
+        <v>0.1343094220655183</v>
       </c>
       <c r="D114" t="n">
-        <v>1.968778975033466</v>
+        <v>2.007349719767659</v>
       </c>
       <c r="E114" t="n">
-        <v>18.93136949596589</v>
+        <v>17.49107887356571</v>
       </c>
       <c r="F114" t="n">
-        <v>0.1780924384337706</v>
+        <v>0.1847416477492412</v>
       </c>
       <c r="G114" t="n">
-        <v>6111.39419799711</v>
+        <v>6078.496898806793</v>
       </c>
       <c r="H114" t="n">
-        <v>3.11943058953083</v>
+        <v>1.1473770594209</v>
       </c>
     </row>
     <row r="115">
@@ -3646,25 +3646,25 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>4.31736547198649</v>
+        <v>6.631140219230073</v>
       </c>
       <c r="C115" t="n">
-        <v>0.04787603991827114</v>
+        <v>0.1071455398776518</v>
       </c>
       <c r="D115" t="n">
-        <v>1.964329541270753</v>
+        <v>1.990048283101655</v>
       </c>
       <c r="E115" t="n">
-        <v>18.92793751440797</v>
+        <v>16.98044637323116</v>
       </c>
       <c r="F115" t="n">
-        <v>0.1780326081023074</v>
+        <v>0.1861788381367089</v>
       </c>
       <c r="G115" t="n">
-        <v>6109.963541984612</v>
+        <v>6059.34110161071</v>
       </c>
       <c r="H115" t="n">
-        <v>3.1818218546381</v>
+        <v>1.77924548440416</v>
       </c>
     </row>
     <row r="116">
@@ -3674,25 +3674,25 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>4.317512742596806</v>
+        <v>6.69964750481623</v>
       </c>
       <c r="C116" t="n">
-        <v>0.04787763441862263</v>
+        <v>0.1041415936901979</v>
       </c>
       <c r="D116" t="n">
-        <v>1.96113627874192</v>
+        <v>1.97806546621653</v>
       </c>
       <c r="E116" t="n">
-        <v>18.92525483221155</v>
+        <v>16.59314962514234</v>
       </c>
       <c r="F116" t="n">
-        <v>0.1780244064677751</v>
+        <v>0.1893099810508772</v>
       </c>
       <c r="G116" t="n">
-        <v>6108.945242424661</v>
+        <v>6046.994679317223</v>
       </c>
       <c r="H116" t="n">
-        <v>3.17121281235345</v>
+        <v>1.86237590687908</v>
       </c>
     </row>
     <row r="117">
@@ -3702,25 +3702,25 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>4.318204412152548</v>
+        <v>6.958196029414046</v>
       </c>
       <c r="C117" t="n">
-        <v>0.04799518572353239</v>
+        <v>0.1195167146379236</v>
       </c>
       <c r="D117" t="n">
-        <v>1.94979672764565</v>
+        <v>1.946937352302809</v>
       </c>
       <c r="E117" t="n">
-        <v>18.92064131772031</v>
+        <v>16.84578994489353</v>
       </c>
       <c r="F117" t="n">
-        <v>0.1779355934751091</v>
+        <v>0.1863244367077302</v>
       </c>
       <c r="G117" t="n">
-        <v>6106.74080222019</v>
+        <v>6050.964918182535</v>
       </c>
       <c r="H117" t="n">
-        <v>3.09100300936517</v>
+        <v>1.35076496684467</v>
       </c>
     </row>
     <row r="118">
@@ -3730,25 +3730,25 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>4.315566717383596</v>
+        <v>6.167615788570639</v>
       </c>
       <c r="C118" t="n">
-        <v>0.04785279813699506</v>
+        <v>0.08838585124551465</v>
       </c>
       <c r="D118" t="n">
-        <v>1.940515917693015</v>
+        <v>1.915119916379644</v>
       </c>
       <c r="E118" t="n">
-        <v>18.91323095572529</v>
+        <v>15.90081858948273</v>
       </c>
       <c r="F118" t="n">
-        <v>0.1779592819719003</v>
+        <v>0.1948660440797399</v>
       </c>
       <c r="G118" t="n">
-        <v>6103.736159023166</v>
+        <v>6019.604872731778</v>
       </c>
       <c r="H118" t="n">
-        <v>3.12612585200826</v>
+        <v>2.38702169244338</v>
       </c>
     </row>
     <row r="119">
@@ -3758,25 +3758,25 @@
         </is>
       </c>
       <c r="B119" t="n">
-        <v>4.319791429702202</v>
+        <v>7.205716659707025</v>
       </c>
       <c r="C119" t="n">
-        <v>0.04805429782694492</v>
+        <v>0.1867756749167433</v>
       </c>
       <c r="D119" t="n">
-        <v>1.957616904981188</v>
+        <v>1.97912748713908</v>
       </c>
       <c r="E119" t="n">
-        <v>18.92827041131994</v>
+        <v>18.14971166212704</v>
       </c>
       <c r="F119" t="n">
-        <v>0.1782376601362183</v>
+        <v>0.1891519278031266</v>
       </c>
       <c r="G119" t="n">
-        <v>6109.81127582221</v>
+        <v>6098.398611113435</v>
       </c>
       <c r="H119" t="n">
-        <v>3.03534195635054</v>
+        <v>0.639944830835729</v>
       </c>
     </row>
     <row r="120">
@@ -3786,25 +3786,25 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>4.315422184287234</v>
+        <v>6.882412876660128</v>
       </c>
       <c r="C120" t="n">
-        <v>0.04812837016060231</v>
+        <v>0.1046472816204896</v>
       </c>
       <c r="D120" t="n">
-        <v>1.907619971362064</v>
+        <v>1.822178990556048</v>
       </c>
       <c r="E120" t="n">
-        <v>18.89147426177306</v>
+        <v>14.56044375470916</v>
       </c>
       <c r="F120" t="n">
-        <v>0.1775116104076181</v>
+        <v>0.1911064915332365</v>
       </c>
       <c r="G120" t="n">
-        <v>6093.96370769426</v>
+        <v>5965.990793294415</v>
       </c>
       <c r="H120" t="n">
-        <v>3.03392059777574</v>
+        <v>1.86918840302538</v>
       </c>
     </row>
     <row r="121">
@@ -3814,25 +3814,25 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>4.318982316335895</v>
+        <v>7.491215201545753</v>
       </c>
       <c r="C121" t="n">
-        <v>0.04784361161887547</v>
+        <v>0.1005892523480919</v>
       </c>
       <c r="D121" t="n">
-        <v>1.972325260618296</v>
+        <v>2.005485415520912</v>
       </c>
       <c r="E121" t="n">
-        <v>18.92753837000532</v>
+        <v>15.57461586718168</v>
       </c>
       <c r="F121" t="n">
-        <v>0.1781189691661622</v>
+        <v>0.1957312697520198</v>
       </c>
       <c r="G121" t="n">
-        <v>6110.307391545474</v>
+        <v>6020.452508122763</v>
       </c>
       <c r="H121" t="n">
-        <v>3.21439781462832</v>
+        <v>1.8691614630603</v>
       </c>
     </row>
     <row r="122">
@@ -3842,25 +3842,25 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>4.31744246751948</v>
+        <v>6.582334218196849</v>
       </c>
       <c r="C122" t="n">
-        <v>0.04791681442285609</v>
+        <v>0.1184711164189103</v>
       </c>
       <c r="D122" t="n">
-        <v>1.96418336094492</v>
+        <v>1.998651453465471</v>
       </c>
       <c r="E122" t="n">
-        <v>18.93192834099305</v>
+        <v>18.33445675389709</v>
       </c>
       <c r="F122" t="n">
-        <v>0.1780774387122438</v>
+        <v>0.1810139557576137</v>
       </c>
       <c r="G122" t="n">
-        <v>6111.216898422967</v>
+        <v>6100.79239557519</v>
       </c>
       <c r="H122" t="n">
-        <v>3.1289499743054</v>
+        <v>1.06596165503201</v>
       </c>
     </row>
     <row r="123">
@@ -3870,25 +3870,25 @@
         </is>
       </c>
       <c r="B123" t="n">
-        <v>4.315257155931941</v>
+        <v>6.189990189016717</v>
       </c>
       <c r="C123" t="n">
-        <v>0.04787301011349852</v>
+        <v>0.09203602102367789</v>
       </c>
       <c r="D123" t="n">
-        <v>1.944182758752129</v>
+        <v>1.926398666999368</v>
       </c>
       <c r="E123" t="n">
-        <v>18.91590272911947</v>
+        <v>16.16230597037724</v>
       </c>
       <c r="F123" t="n">
-        <v>0.1778858745395194</v>
+        <v>0.1904128360320806</v>
       </c>
       <c r="G123" t="n">
-        <v>6104.778300858735</v>
+        <v>6026.409893451239</v>
       </c>
       <c r="H123" t="n">
-        <v>3.15891144650079</v>
+        <v>2.22957611287834</v>
       </c>
     </row>
     <row r="124">
@@ -3898,25 +3898,25 @@
         </is>
       </c>
       <c r="B124" t="n">
-        <v>4.315985037703991</v>
+        <v>6.225097339687652</v>
       </c>
       <c r="C124" t="n">
-        <v>0.04783749807023248</v>
+        <v>0.09449289127056257</v>
       </c>
       <c r="D124" t="n">
-        <v>1.959771728858027</v>
+        <v>1.977326168507456</v>
       </c>
       <c r="E124" t="n">
-        <v>18.9263082128925</v>
+        <v>17.11338511807931</v>
       </c>
       <c r="F124" t="n">
-        <v>0.1780423221747293</v>
+        <v>0.1886131121989352</v>
       </c>
       <c r="G124" t="n">
-        <v>6109.145171320699</v>
+        <v>6061.348035755343</v>
       </c>
       <c r="H124" t="n">
-        <v>3.18623776939699</v>
+        <v>1.96091905249303</v>
       </c>
     </row>
     <row r="125">
@@ -3926,25 +3926,25 @@
         </is>
       </c>
       <c r="B125" t="n">
-        <v>4.314073340270026</v>
+        <v>5.520146159850202</v>
       </c>
       <c r="C125" t="n">
-        <v>0.04770701135088799</v>
+        <v>0.08129744710022295</v>
       </c>
       <c r="D125" t="n">
-        <v>1.963946323462485</v>
+        <v>1.983018926526849</v>
       </c>
       <c r="E125" t="n">
-        <v>18.92546723095395</v>
+        <v>16.1478092472793</v>
       </c>
       <c r="F125" t="n">
-        <v>0.1780541538872964</v>
+        <v>0.191754095350589</v>
       </c>
       <c r="G125" t="n">
-        <v>6109.069327745028</v>
+        <v>6031.759875898882</v>
       </c>
       <c r="H125" t="n">
-        <v>3.29395462931721</v>
+        <v>2.95996813020823</v>
       </c>
     </row>
     <row r="126">
@@ -3954,25 +3954,25 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>4.316179099813971</v>
+        <v>6.371913191423336</v>
       </c>
       <c r="C126" t="n">
-        <v>0.04783554534367589</v>
+        <v>0.1008483138223091</v>
       </c>
       <c r="D126" t="n">
-        <v>1.970620691489536</v>
+        <v>2.00768348412806</v>
       </c>
       <c r="E126" t="n">
-        <v>18.93018079545729</v>
+        <v>16.73000468229977</v>
       </c>
       <c r="F126" t="n">
-        <v>0.1781357038811973</v>
+        <v>0.191649299089419</v>
       </c>
       <c r="G126" t="n">
-        <v>6111.02517249981</v>
+        <v>6054.35204684048</v>
       </c>
       <c r="H126" t="n">
-        <v>3.26701689701757</v>
+        <v>2.09313980281328</v>
       </c>
     </row>
     <row r="127">
@@ -3982,25 +3982,25 @@
         </is>
       </c>
       <c r="B127" t="n">
-        <v>4.310029499130588</v>
+        <v>5.529802457896911</v>
       </c>
       <c r="C127" t="n">
-        <v>0.04824825743854284</v>
+        <v>0.1303505963879616</v>
       </c>
       <c r="D127" t="n">
-        <v>1.886991741733995</v>
+        <v>1.80011266615089</v>
       </c>
       <c r="E127" t="n">
-        <v>18.89990838209031</v>
+        <v>18.61735453052546</v>
       </c>
       <c r="F127" t="n">
-        <v>0.1776037763666144</v>
+        <v>0.1690454718660997</v>
       </c>
       <c r="G127" t="n">
-        <v>6092.310450743462</v>
+        <v>6077.643783285687</v>
       </c>
       <c r="H127" t="n">
-        <v>2.86868179997424</v>
+        <v>0.636353273852829</v>
       </c>
     </row>
     <row r="128">
@@ -4010,25 +4010,25 @@
         </is>
       </c>
       <c r="B128" t="n">
-        <v>4.309917929251974</v>
+        <v>4.395446638883269</v>
       </c>
       <c r="C128" t="n">
-        <v>0.0475816804343422</v>
+        <v>0.06939882840615796</v>
       </c>
       <c r="D128" t="n">
-        <v>1.960124379116709</v>
+        <v>1.971513535673528</v>
       </c>
       <c r="E128" t="n">
-        <v>18.92420307151977</v>
+        <v>16.24720150146919</v>
       </c>
       <c r="F128" t="n">
-        <v>0.1779598870010219</v>
+        <v>0.1867739685828393</v>
       </c>
       <c r="G128" t="n">
-        <v>6108.265100520415</v>
+        <v>6029.563491015943</v>
       </c>
       <c r="H128" t="n">
-        <v>3.38773288743924</v>
+        <v>3.44600486188217</v>
       </c>
     </row>
     <row r="129">
@@ -4038,25 +4038,25 @@
         </is>
       </c>
       <c r="B129" t="n">
-        <v>4.30826009810668</v>
+        <v>5.578661717575415</v>
       </c>
       <c r="C129" t="n">
-        <v>0.04813373092297323</v>
+        <v>0.0998537639599395</v>
       </c>
       <c r="D129" t="n">
-        <v>1.890858844892512</v>
+        <v>1.798916625597723</v>
       </c>
       <c r="E129" t="n">
-        <v>18.89494235687318</v>
+        <v>17.14888902263179</v>
       </c>
       <c r="F129" t="n">
-        <v>0.1773785536615408</v>
+        <v>0.1699525807385143</v>
       </c>
       <c r="G129" t="n">
-        <v>6091.821315595917</v>
+        <v>6032.653693076443</v>
       </c>
       <c r="H129" t="n">
-        <v>3.00784842226404</v>
+        <v>1.39182359091661</v>
       </c>
     </row>
     <row r="130">
@@ -4066,25 +4066,25 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>4.299645005230948</v>
+        <v>4.46999064291638</v>
       </c>
       <c r="C130" t="n">
-        <v>0.04792213309431036</v>
+        <v>0.07465129249554926</v>
       </c>
       <c r="D130" t="n">
-        <v>1.862997446065611</v>
+        <v>1.720839510568159</v>
       </c>
       <c r="E130" t="n">
-        <v>18.86721332046399</v>
+        <v>14.24994762976276</v>
       </c>
       <c r="F130" t="n">
-        <v>0.1769855138467331</v>
+        <v>0.1820802036639913</v>
       </c>
       <c r="G130" t="n">
-        <v>6079.919510479162</v>
+        <v>5934.501462549305</v>
       </c>
       <c r="H130" t="n">
-        <v>3.11773402873428</v>
+        <v>2.99690651308259</v>
       </c>
     </row>
     <row r="131">
@@ -4094,25 +4094,25 @@
         </is>
       </c>
       <c r="B131" t="n">
-        <v>4.297016239230222</v>
+        <v>4.897732530328817</v>
       </c>
       <c r="C131" t="n">
-        <v>0.04829903498873075</v>
+        <v>0.0804592153256104</v>
       </c>
       <c r="D131" t="n">
-        <v>1.823170654698117</v>
+        <v>1.642434289665603</v>
       </c>
       <c r="E131" t="n">
-        <v>18.84178650891076</v>
+        <v>13.72340495922018</v>
       </c>
       <c r="F131" t="n">
-        <v>0.1765493806484917</v>
+        <v>0.1803122507083864</v>
       </c>
       <c r="G131" t="n">
-        <v>6064.855587914223</v>
+        <v>5905.017062728922</v>
       </c>
       <c r="H131" t="n">
-        <v>2.92613547425776</v>
+        <v>2.45574756483459</v>
       </c>
     </row>
     <row r="132">
@@ -4122,25 +4122,25 @@
         </is>
       </c>
       <c r="B132" t="n">
-        <v>4.291357136018494</v>
+        <v>3.317427070346964</v>
       </c>
       <c r="C132" t="n">
-        <v>0.04768969989519714</v>
+        <v>0.06447479239585779</v>
       </c>
       <c r="D132" t="n">
-        <v>1.845909498199425</v>
+        <v>1.669926405959493</v>
       </c>
       <c r="E132" t="n">
-        <v>18.84224279143287</v>
+        <v>11.50879282396477</v>
       </c>
       <c r="F132" t="n">
-        <v>0.1768462578136873</v>
+        <v>0.1905733997633708</v>
       </c>
       <c r="G132" t="n">
-        <v>6070.786211666416</v>
+        <v>5845.730909208779</v>
       </c>
       <c r="H132" t="n">
-        <v>3.27964097943822</v>
+        <v>4.25153981565571</v>
       </c>
     </row>
     <row r="133">
@@ -4150,25 +4150,25 @@
         </is>
       </c>
       <c r="B133" t="n">
-        <v>4.298637243092465</v>
+        <v>4.148674185089877</v>
       </c>
       <c r="C133" t="n">
-        <v>0.04783155826826037</v>
+        <v>0.07160164058877454</v>
       </c>
       <c r="D133" t="n">
-        <v>1.860534578716022</v>
+        <v>1.705425254288089</v>
       </c>
       <c r="E133" t="n">
-        <v>18.85569303473133</v>
+        <v>12.37110392832098</v>
       </c>
       <c r="F133" t="n">
-        <v>0.1774545622393076</v>
+        <v>0.2005828073869892</v>
       </c>
       <c r="G133" t="n">
-        <v>6077.170654769347</v>
+        <v>5884.088049300655</v>
       </c>
       <c r="H133" t="n">
-        <v>3.19548912361968</v>
+        <v>3.77439271190015</v>
       </c>
     </row>
     <row r="134">
@@ -4178,25 +4178,25 @@
         </is>
       </c>
       <c r="B134" t="n">
-        <v>4.305752753064617</v>
+        <v>4.339113907950094</v>
       </c>
       <c r="C134" t="n">
-        <v>0.04815954927448937</v>
+        <v>0.186050636058422</v>
       </c>
       <c r="D134" t="n">
-        <v>1.888442135798829</v>
+        <v>1.822722259742048</v>
       </c>
       <c r="E134" t="n">
-        <v>18.91521103438811</v>
+        <v>21.73922160419343</v>
       </c>
       <c r="F134" t="n">
-        <v>0.1775579095646437</v>
+        <v>0.1606101618819903</v>
       </c>
       <c r="G134" t="n">
-        <v>6095.926483274893</v>
+        <v>6169.78648527727</v>
       </c>
       <c r="H134" t="n">
-        <v>2.83704090874599</v>
+        <v>0.302765539377728</v>
       </c>
     </row>
     <row r="135">
@@ -4206,25 +4206,25 @@
         </is>
       </c>
       <c r="B135" t="n">
-        <v>4.308157071530669</v>
+        <v>5.122019022190519</v>
       </c>
       <c r="C135" t="n">
-        <v>0.04770040165808104</v>
+        <v>0.07428774438344143</v>
       </c>
       <c r="D135" t="n">
-        <v>1.91584448957688</v>
+        <v>1.829539913133245</v>
       </c>
       <c r="E135" t="n">
-        <v>18.88890207587022</v>
+        <v>12.71611549081151</v>
       </c>
       <c r="F135" t="n">
-        <v>0.1775871950887544</v>
+        <v>0.1972331386874534</v>
       </c>
       <c r="G135" t="n">
-        <v>6094.199688475827</v>
+        <v>5909.498200002371</v>
       </c>
       <c r="H135" t="n">
-        <v>3.31481231464305</v>
+        <v>3.86735525289634</v>
       </c>
     </row>
     <row r="136">
@@ -4234,25 +4234,25 @@
         </is>
       </c>
       <c r="B136" t="n">
-        <v>4.314052096190372</v>
+        <v>5.751366806521566</v>
       </c>
       <c r="C136" t="n">
-        <v>0.04770334122515759</v>
+        <v>0.08279199620519267</v>
       </c>
       <c r="D136" t="n">
-        <v>1.962181740658629</v>
+        <v>1.97005200685631</v>
       </c>
       <c r="E136" t="n">
-        <v>18.92107398732269</v>
+        <v>14.9910364425455</v>
       </c>
       <c r="F136" t="n">
-        <v>0.1780164163482762</v>
+        <v>0.1944776895888085</v>
       </c>
       <c r="G136" t="n">
-        <v>6107.584108547592</v>
+        <v>5995.656421908042</v>
       </c>
       <c r="H136" t="n">
-        <v>3.33269403333944</v>
+        <v>3.20932255418482</v>
       </c>
     </row>
     <row r="137">
@@ -4262,25 +4262,25 @@
         </is>
       </c>
       <c r="B137" t="n">
-        <v>4.307674405186841</v>
+        <v>5.151424213187259</v>
       </c>
       <c r="C137" t="n">
-        <v>0.04774926179454002</v>
+        <v>0.07561225997150275</v>
       </c>
       <c r="D137" t="n">
-        <v>1.906360636297944</v>
+        <v>1.806693349185486</v>
       </c>
       <c r="E137" t="n">
-        <v>18.88350476789282</v>
+        <v>12.69901893964122</v>
       </c>
       <c r="F137" t="n">
-        <v>0.1775293391801246</v>
+        <v>0.1973571103037221</v>
       </c>
       <c r="G137" t="n">
-        <v>6091.60620538624</v>
+        <v>5906.622748094063</v>
       </c>
       <c r="H137" t="n">
-        <v>3.27165033417974</v>
+        <v>3.74024953895591</v>
       </c>
     </row>
     <row r="138">
@@ -4290,25 +4290,25 @@
         </is>
       </c>
       <c r="B138" t="n">
-        <v>4.314693840637392</v>
+        <v>6.044707874230756</v>
       </c>
       <c r="C138" t="n">
-        <v>0.04785425886264794</v>
+        <v>0.09284285874952188</v>
       </c>
       <c r="D138" t="n">
-        <v>1.947332549196858</v>
+        <v>1.936511845202673</v>
       </c>
       <c r="E138" t="n">
-        <v>18.91820881288347</v>
+        <v>16.39115911256648</v>
       </c>
       <c r="F138" t="n">
-        <v>0.1778933888121746</v>
+        <v>0.1877877873572341</v>
       </c>
       <c r="G138" t="n">
-        <v>6105.697722631567</v>
+        <v>6033.66540247263</v>
       </c>
       <c r="H138" t="n">
-        <v>3.1880867222651</v>
+        <v>2.27901450191925</v>
       </c>
     </row>
     <row r="139">
@@ -4318,25 +4318,25 @@
         </is>
       </c>
       <c r="B139" t="n">
-        <v>4.310703987118321</v>
+        <v>5.868163978334879</v>
       </c>
       <c r="C139" t="n">
-        <v>0.048080203416891</v>
+        <v>0.09473768462786253</v>
       </c>
       <c r="D139" t="n">
-        <v>1.896583127085689</v>
+        <v>1.803586389670093</v>
       </c>
       <c r="E139" t="n">
-        <v>18.89133711823623</v>
+        <v>15.76337519818678</v>
       </c>
       <c r="F139" t="n">
-        <v>0.1774339833456497</v>
+        <v>0.1829437523312507</v>
       </c>
       <c r="G139" t="n">
-        <v>6092.082396663624</v>
+        <v>5995.555542258323</v>
       </c>
       <c r="H139" t="n">
-        <v>3.03241959520965</v>
+        <v>1.95194580172769</v>
       </c>
     </row>
     <row r="140">
@@ -4346,25 +4346,25 @@
         </is>
       </c>
       <c r="B140" t="n">
-        <v>4.309193537132971</v>
+        <v>6.214326471815527</v>
       </c>
       <c r="C140" t="n">
-        <v>0.04810199406612072</v>
+        <v>0.08757443152150239</v>
       </c>
       <c r="D140" t="n">
-        <v>1.872690954567829</v>
+        <v>1.730189695276515</v>
       </c>
       <c r="E140" t="n">
-        <v>18.86250834505872</v>
+        <v>12.40764326164478</v>
       </c>
       <c r="F140" t="n">
-        <v>0.1771946454771395</v>
+        <v>0.1961162567529925</v>
       </c>
       <c r="G140" t="n">
-        <v>6081.183814491102</v>
+        <v>5888.071611785523</v>
       </c>
       <c r="H140" t="n">
-        <v>3.06030748828062</v>
+        <v>2.86059408001984</v>
       </c>
     </row>
     <row r="141">
@@ -4374,25 +4374,25 @@
         </is>
       </c>
       <c r="B141" t="n">
-        <v>4.307120684698199</v>
+        <v>5.047251594298041</v>
       </c>
       <c r="C141" t="n">
-        <v>0.04788941285523615</v>
+        <v>0.08153633200071851</v>
       </c>
       <c r="D141" t="n">
-        <v>1.902960503635576</v>
+        <v>1.823569646567759</v>
       </c>
       <c r="E141" t="n">
-        <v>18.898520929395</v>
+        <v>16.64668211197165</v>
       </c>
       <c r="F141" t="n">
-        <v>0.1774976704903521</v>
+        <v>0.1783901938520493</v>
       </c>
       <c r="G141" t="n">
-        <v>6094.741666598013</v>
+        <v>6022.105332626807</v>
       </c>
       <c r="H141" t="n">
-        <v>3.10933684397051</v>
+        <v>2.25346613135739</v>
       </c>
     </row>
     <row r="142">
@@ -4402,25 +4402,25 @@
         </is>
       </c>
       <c r="B142" t="n">
-        <v>108.5510053634644</v>
+        <v>297.7239909172058</v>
       </c>
       <c r="C142" t="n">
-        <v>108.5510053634644</v>
+        <v>297.7239909172058</v>
       </c>
       <c r="D142" t="n">
-        <v>108.5510053634644</v>
+        <v>297.7239909172058</v>
       </c>
       <c r="E142" t="n">
-        <v>108.5510053634644</v>
+        <v>297.7239909172058</v>
       </c>
       <c r="F142" t="n">
-        <v>108.5510053634644</v>
+        <v>297.7239909172058</v>
       </c>
       <c r="G142" t="n">
-        <v>108.5510053634644</v>
+        <v>297.7239909172058</v>
       </c>
       <c r="H142" t="n">
-        <v>108.5510053634644</v>
+        <v>297.7239909172058</v>
       </c>
     </row>
   </sheetData>
